--- a/Total Servant Database.xlsx
+++ b/Total Servant Database.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI279"/>
+  <dimension ref="A1:AI280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16191,7 +16191,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Avenger, All the World's Evil, King of Daemons, Aŋra Mainyu, Aŋra Mainiiu</t>
+          <t>Avenger, All the World's Evil, King of Daemons, Aŋra Mainiiu</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -37550,7 +37550,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Yuuki Kuwahara</t>
+          <t>Kuwahara Yuuki</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
@@ -41464,6 +41464,153 @@
       </c>
       <c r="AI279" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Utsumi Erice</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>283</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>4-Star</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>宇津見エリセ</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Grim Reaper</t>
+        </is>
+      </c>
+      <c r="H280" t="n">
+        <v>12</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1520</v>
+      </c>
+      <c r="J280" t="n">
+        <v>9122</v>
+      </c>
+      <c r="K280" t="n">
+        <v>1918</v>
+      </c>
+      <c r="L280" t="n">
+        <v>11991</v>
+      </c>
+      <c r="M280" t="n">
+        <v>11045</v>
+      </c>
+      <c r="N280" t="n">
+        <v>14539</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>Kitō Akari</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>NOCO</t>
+        </is>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Semi S</t>
+        </is>
+      </c>
+      <c r="S280" t="n">
+        <v>87</v>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>0.63%</t>
+        </is>
+      </c>
+      <c r="V280" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="W280" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="X280" t="inlineStr">
+        <is>
+          <t>Lawful Neutral</t>
+        </is>
+      </c>
+      <c r="Y280" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="Z280" t="inlineStr">
+        <is>
+          <t>Divine, Female, Humanoid, Living Human, Riding, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="AA280" t="inlineStr">
+        <is>
+          <t>QQAAB</t>
+        </is>
+      </c>
+      <c r="AB280" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF280" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AG280" t="inlineStr">
+        <is>
+          <t>Anti-Army</t>
+        </is>
+      </c>
+      <c r="AH280" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="AI280" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Total Servant Database.xlsx
+++ b/Total Servant Database.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH280"/>
+  <dimension ref="A1:AH281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11801,7 +11801,9 @@
           <t>Buster</t>
         </is>
       </c>
-      <c r="AH79" t="inlineStr"/>
+      <c r="AH79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -15838,7 +15840,9 @@
           <t>Buster</t>
         </is>
       </c>
-      <c r="AH107" t="inlineStr"/>
+      <c r="AH107" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -16414,7 +16418,9 @@
           <t>Arts</t>
         </is>
       </c>
-      <c r="AH111" t="inlineStr"/>
+      <c r="AH111" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -18142,7 +18148,9 @@
           <t>Arts</t>
         </is>
       </c>
-      <c r="AH123" t="inlineStr"/>
+      <c r="AH123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26208,7 +26216,9 @@
           <t>Buster</t>
         </is>
       </c>
-      <c r="AH179" t="inlineStr"/>
+      <c r="AH179" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -31826,7 +31836,9 @@
           <t>Buster</t>
         </is>
       </c>
-      <c r="AH218" t="inlineStr"/>
+      <c r="AH218" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -37016,7 +37028,9 @@
           <t>Quick</t>
         </is>
       </c>
-      <c r="AH254" t="inlineStr"/>
+      <c r="AH254" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -38454,7 +38468,9 @@
           <t>Quick</t>
         </is>
       </c>
-      <c r="AH264" t="inlineStr"/>
+      <c r="AH264" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -38884,7 +38900,9 @@
           <t>Quick</t>
         </is>
       </c>
-      <c r="AH267" t="inlineStr"/>
+      <c r="AH267" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -39456,7 +39474,9 @@
           <t>Buster</t>
         </is>
       </c>
-      <c r="AH271" t="inlineStr"/>
+      <c r="AH271" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -39729,12 +39749,12 @@
       </c>
       <c r="AE273" t="inlineStr">
         <is>
+          <t>D++</t>
+        </is>
+      </c>
+      <c r="AF273" t="inlineStr">
+        <is>
           <t>Poetry</t>
-        </is>
-      </c>
-      <c r="AF273" t="inlineStr">
-        <is>
-          <t>D++</t>
         </is>
       </c>
       <c r="AG273" t="inlineStr">
@@ -40161,12 +40181,12 @@
       </c>
       <c r="AE276" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AF276" t="inlineStr">
+        <is>
           <t>Anti-Army</t>
-        </is>
-      </c>
-      <c r="AF276" t="inlineStr">
-        <is>
-          <t>A</t>
         </is>
       </c>
       <c r="AG276" t="inlineStr">
@@ -40449,12 +40469,12 @@
       </c>
       <c r="AE278" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AF278" t="inlineStr">
+        <is>
           <t>Anti-Planet</t>
-        </is>
-      </c>
-      <c r="AF278" t="inlineStr">
-        <is>
-          <t>B</t>
         </is>
       </c>
       <c r="AG278" t="inlineStr">
@@ -40606,7 +40626,9 @@
           <t>Buster</t>
         </is>
       </c>
-      <c r="AH279" t="inlineStr"/>
+      <c r="AH279" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -40748,7 +40770,155 @@
           <t>Arts</t>
         </is>
       </c>
-      <c r="AH280" t="inlineStr"/>
+      <c r="AH280" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Artoria Caster</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>284</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>5-Star</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Caster</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>アルトリア・キャスター</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Artoria Pendragon (Caster)</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>16</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1629</v>
+      </c>
+      <c r="I281" t="n">
+        <v>10546</v>
+      </c>
+      <c r="J281" t="n">
+        <v>2112</v>
+      </c>
+      <c r="K281" t="n">
+        <v>14406</v>
+      </c>
+      <c r="L281" t="n">
+        <v>11544</v>
+      </c>
+      <c r="M281" t="n">
+        <v>15782</v>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>Kawasumi Ayako</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>Takeuchi Takashi</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>Star</t>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="R281" t="n">
+        <v>50</v>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr">
+        <is>
+          <t>0.54%</t>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="W281" t="inlineStr">
+        <is>
+          <t>Neutral Good</t>
+        </is>
+      </c>
+      <c r="X281" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="Y281" t="inlineStr">
+        <is>
+          <t>Arthur, Humanoid, Saberface, Servant</t>
+        </is>
+      </c>
+      <c r="Z281" t="inlineStr">
+        <is>
+          <t>QAAAB</t>
+        </is>
+      </c>
+      <c r="AA281" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE281" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AF281" t="inlineStr">
+        <is>
+          <t>Anti-Army</t>
+        </is>
+      </c>
+      <c r="AG281" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="AH281" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Total Servant Database.xlsx
+++ b/Total Servant Database.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH281"/>
+  <dimension ref="A1:AH287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>Divine, Greek Mythology Males, Humanoid, King, Male, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Divine, Greek Mythology Males, Humanoid, King, Male, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Humanoid, Male, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Humanoid, Male, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>Giant, Greek Mythology Males, Humanoid, Male, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Giant, Greek Mythology Males, Humanoid, Male, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Dragon, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Dragon, Female, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -11190,7 +11190,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants (Stage2-3), Female, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -11334,7 +11334,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Female, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>Divine, Humanoid, King, Male, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Divine, Humanoid, King, Male, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
@@ -17393,7 +17393,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>Demonic, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Demonic, Female, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
@@ -19985,7 +19985,7 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>Dragon, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Dragon, Female, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
@@ -20273,7 +20273,7 @@
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>Female, Humanoid, Illya, Living Human, Pseudo-Servants, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Female, Humanoid, Illya, Living Human, Pseudo-Servants, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
@@ -20417,7 +20417,7 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>Female, Humanoid, Living Human, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Female, Humanoid, Living Human, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z139" t="inlineStr">
@@ -20993,7 +20993,7 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>Female, Humanoid, Saberface, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Female, Humanoid, Saberface, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z143" t="inlineStr">
@@ -21713,7 +21713,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>Divine, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Divine, Female, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
@@ -23587,7 +23587,7 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Female, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z161" t="inlineStr">
@@ -24595,7 +24595,7 @@
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>Female, Humanoid, King, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Female, Humanoid, King, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z168" t="inlineStr">
@@ -25173,7 +25173,7 @@
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>Female, Giant, Humanoid, Servants, Weak to Enuma Elish</t>
+          <t>Children Servants, Female, Giant, Humanoid, Servants, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr">
@@ -28201,7 +28201,7 @@
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>Divine, Female, Humanoid, Servant, Threat to Humanity</t>
+          <t>Children Servants, Divine, Female, Humanoid, Servant, Threat to Humanity</t>
         </is>
       </c>
       <c r="Z193" t="inlineStr">
@@ -30280,7 +30280,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Manslayer Izō (人斬り以蔵, Hitokiri Izō?), Okada Izou</t>
+          <t>Manslayer Izō (人斬り以蔵, Hitokiri Izō?), Okada Izou, Ghost of Tosa</t>
         </is>
       </c>
       <c r="G208" t="n">
@@ -31369,7 +31369,7 @@
       </c>
       <c r="Y215" t="inlineStr">
         <is>
-          <t>Demonic, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Demonic, Female, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z215" t="inlineStr">
@@ -32377,7 +32377,7 @@
       </c>
       <c r="Y222" t="inlineStr">
         <is>
-          <t>Divine, Female, Humanoid, Illya, Pseudo-Servant, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Divine, Female, Humanoid, Illya, Pseudo-Servant, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z222" t="inlineStr">
@@ -33141,7 +33141,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Yu Miaoyi</t>
+          <t>Consort Yu</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -33164,7 +33164,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Consort Yu, Yu the Beauty, Yu Meiren, Akuta Hinako (芥ヒナコ?)Crimson Beauty Under the Moon (紅の月下美人?), Gubijin, Gucchan, 虞妙弋</t>
+          <t>Yu Miaoyi, Yu the Beauty, Yu Meiren, Akuta Hinako (芥ヒナコ?)Crimson Beauty Under the Moon (紅の月下美人?), Gubijin, Gucchan, 虞妙弋</t>
         </is>
       </c>
       <c r="G228" t="n">
@@ -33819,7 +33819,7 @@
       </c>
       <c r="Y232" t="inlineStr">
         <is>
-          <t>Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Female, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z232" t="inlineStr">
@@ -34107,7 +34107,7 @@
       </c>
       <c r="Y234" t="inlineStr">
         <is>
-          <t>Female, Humanoid, Living Human, Pseudo-Servants, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Female, Humanoid, Living Human, Pseudo-Servants, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z234" t="inlineStr">
@@ -34541,7 +34541,7 @@
       </c>
       <c r="Y237" t="inlineStr">
         <is>
-          <t>Divine, Female, Humanoid, Pseudo-Servant, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants (Stage 1), Divine, Female, Humanoid, Pseudo-Servant, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z237" t="inlineStr">
@@ -35839,7 +35839,7 @@
       </c>
       <c r="Y246" t="inlineStr">
         <is>
-          <t>Argo-Related, Brynhildr's Beloved, Divine, Greek Mythology Males, Humanoid, Male, Servant, Weak to Enuma Elish</t>
+          <t>Argo-Related, Divine, Greek Mythology Males, Humanoid, Male, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z246" t="inlineStr">
@@ -36338,7 +36338,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Loli Vinci, Gran Cavallo</t>
+          <t>Da Vinci Lily, Loli Vinci, Gran Cavallo</t>
         </is>
       </c>
       <c r="G250" t="n">
@@ -36417,7 +36417,7 @@
       </c>
       <c r="Y250" t="inlineStr">
         <is>
-          <t>Female, Humanoid, Riding, Servant</t>
+          <t>Children Servants, Female, Humanoid, Riding, Servant</t>
         </is>
       </c>
       <c r="Z250" t="inlineStr">
@@ -36705,7 +36705,7 @@
       </c>
       <c r="Y252" t="inlineStr">
         <is>
-          <t>Argo-Related, Brynhildr's Beloved, Greek Mythology Males, Humanoid, Male, Servant, Weak to Enuma Elish</t>
+          <t>Argo-Related, Brynhildr's Beloved, Children Servants, Greek Mythology Males, Humanoid, Male, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z252" t="inlineStr">
@@ -39188,7 +39188,11 @@
           <t>Arts</t>
         </is>
       </c>
-      <c r="AH269" t="inlineStr"/>
+      <c r="AH269" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -40447,7 +40451,7 @@
       </c>
       <c r="Y278" t="inlineStr">
         <is>
-          <t>Humanoid, Male, Servant</t>
+          <t>Children Servants, Humanoid, Male, Servant</t>
         </is>
       </c>
       <c r="Z278" t="inlineStr">
@@ -40735,7 +40739,7 @@
       </c>
       <c r="Y280" t="inlineStr">
         <is>
-          <t>Divine, Female, Humanoid, Living Human, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Divine, Female, Humanoid, Living Human, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z280" t="inlineStr">
@@ -40800,7 +40804,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Artoria Pendragon (Caster)</t>
+          <t>Castoria, CasSeiba</t>
         </is>
       </c>
       <c r="G281" t="n">
@@ -40879,7 +40883,7 @@
       </c>
       <c r="Y281" t="inlineStr">
         <is>
-          <t>Arthur, Humanoid, Saberface, Servant</t>
+          <t>Arthur, Humanoid, Saberface, Servant, Female</t>
         </is>
       </c>
       <c r="Z281" t="inlineStr">
@@ -40918,6 +40922,870 @@
         <is>
           <t>－</t>
         </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Sesshōin Kiara (Moon Cancer)</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>285</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>5-Star</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Moon Cancer</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>殺生院キアラ</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Sessyoin Kiara, Sesshouin Kiara, Demonic Bodhisattva, Last Prophet, Beast III/R</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>16</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1719</v>
+      </c>
+      <c r="I282" t="n">
+        <v>11128</v>
+      </c>
+      <c r="J282" t="n">
+        <v>2249</v>
+      </c>
+      <c r="K282" t="n">
+        <v>15336</v>
+      </c>
+      <c r="L282" t="n">
+        <v>12181</v>
+      </c>
+      <c r="M282" t="n">
+        <v>16801</v>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>Tanaka Rie</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>Wada Arco</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="R282" t="n">
+        <v>50</v>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>14.8%</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="W282" t="inlineStr">
+        <is>
+          <t>Lawful Evil</t>
+        </is>
+      </c>
+      <c r="X282" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="Y282" t="inlineStr">
+        <is>
+          <t>Female, Humanoid, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z282" t="inlineStr">
+        <is>
+          <t>QAABB</t>
+        </is>
+      </c>
+      <c r="AA282" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE282" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AF282" t="inlineStr">
+        <is>
+          <t>Anti-World</t>
+        </is>
+      </c>
+      <c r="AG282" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="AH282" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Illyasviel von Einzbern (Archer)</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>286</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4-Star</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>イリヤスフィール・フォン・アインツベルン</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Illya</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>12</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1683</v>
+      </c>
+      <c r="I283" t="n">
+        <v>10098</v>
+      </c>
+      <c r="J283" t="n">
+        <v>1746</v>
+      </c>
+      <c r="K283" t="n">
+        <v>10914</v>
+      </c>
+      <c r="L283" t="n">
+        <v>12226</v>
+      </c>
+      <c r="M283" t="n">
+        <v>13233</v>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>Kadowaki Mai, Takano Naoko</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>Hiroyama Hiroshi</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>Semi Reverse S</t>
+        </is>
+      </c>
+      <c r="R283" t="n">
+        <v>148</v>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>0.63%</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>31.5%</t>
+        </is>
+      </c>
+      <c r="W283" t="inlineStr">
+        <is>
+          <t>Neutral Summer</t>
+        </is>
+      </c>
+      <c r="X283" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="Y283" t="inlineStr">
+        <is>
+          <t>Children Servants, Female, Humanoid, Illya, Living Human, Pseudo-Servants, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z283" t="inlineStr">
+        <is>
+          <t>QQAAB</t>
+        </is>
+      </c>
+      <c r="AA283" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE283" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AF283" t="inlineStr">
+        <is>
+          <t>Anti-Army</t>
+        </is>
+      </c>
+      <c r="AG283" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="AH283" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Brynhildr (Berserker)</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>287</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>4-Star</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Berserker</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>ブリュンヒルデ</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Brynhild (Brünnhilde), Sigrdrífa</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>12</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1699</v>
+      </c>
+      <c r="I284" t="n">
+        <v>10197</v>
+      </c>
+      <c r="J284" t="n">
+        <v>1603</v>
+      </c>
+      <c r="K284" t="n">
+        <v>10023</v>
+      </c>
+      <c r="L284" t="n">
+        <v>12346</v>
+      </c>
+      <c r="M284" t="n">
+        <v>12153</v>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>Noto Mamiko</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>Miwa Shirō</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>Semi Reverse S</t>
+        </is>
+      </c>
+      <c r="R284" t="n">
+        <v>10</v>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr">
+        <is>
+          <t>0.85%</t>
+        </is>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>45.5%</t>
+        </is>
+      </c>
+      <c r="W284" t="inlineStr">
+        <is>
+          <t>Neutral Good</t>
+        </is>
+      </c>
+      <c r="X284" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="Y284" t="inlineStr">
+        <is>
+          <t>Divine, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z284" t="inlineStr">
+        <is>
+          <t>QABBB</t>
+        </is>
+      </c>
+      <c r="AA284" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE284" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AF284" t="inlineStr">
+        <is>
+          <t>Anti-Unit / Anti-Army</t>
+        </is>
+      </c>
+      <c r="AG284" t="inlineStr">
+        <is>
+          <t>Buster</t>
+        </is>
+      </c>
+      <c r="AH284" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Consort Yu (Lancer)</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>288</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>4-Star</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>虞美人</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Yu Miaoyi, Yu the Beauty, Yu Meiren, Akuta Hinako (芥ヒナコ?)Crimson Beauty Under the Moon (紅の月下美人?), Gubijin, Gucchan, 虞妙弋</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>12</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1649</v>
+      </c>
+      <c r="I285" t="n">
+        <v>9896</v>
+      </c>
+      <c r="J285" t="n">
+        <v>1799</v>
+      </c>
+      <c r="K285" t="n">
+        <v>11245</v>
+      </c>
+      <c r="L285" t="n">
+        <v>11982</v>
+      </c>
+      <c r="M285" t="n">
+        <v>13634</v>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>Ise Mariya</t>
+        </is>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>toi8</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>Reverse S</t>
+        </is>
+      </c>
+      <c r="R285" t="n">
+        <v>89</v>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>12.2%</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="V285" t="inlineStr">
+        <is>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="W285" t="inlineStr">
+        <is>
+          <t>Lawful Evil</t>
+        </is>
+      </c>
+      <c r="X285" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="Y285" t="inlineStr">
+        <is>
+          <t>Demonic, Humanoid, Female, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z285" t="inlineStr">
+        <is>
+          <t>QQABB</t>
+        </is>
+      </c>
+      <c r="AA285" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE285" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AF285" t="inlineStr">
+        <is>
+          <t>Anti-Army</t>
+        </is>
+      </c>
+      <c r="AG285" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="AH285" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Abigail Williams (Summer)</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>289</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>5-Star</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Foreigner</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>アビゲイル・ウィリアムズ</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>The Key to the Gate, Sut-Typhon, Yog-Sothoth, All-in-One, One-in-All, Abby</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>16</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1820</v>
+      </c>
+      <c r="I286" t="n">
+        <v>11781</v>
+      </c>
+      <c r="J286" t="n">
+        <v>2090</v>
+      </c>
+      <c r="K286" t="n">
+        <v>14250</v>
+      </c>
+      <c r="L286" t="n">
+        <v>12896</v>
+      </c>
+      <c r="M286" t="n">
+        <v>15611</v>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>Ōwada Hitomi</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>Kuroboshi Kouhaku</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>Semi S</t>
+        </is>
+      </c>
+      <c r="R286" t="n">
+        <v>150</v>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="T286" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="W286" t="inlineStr">
+        <is>
+          <t>Lawful Evil</t>
+        </is>
+      </c>
+      <c r="X286" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="Y286" t="inlineStr">
+        <is>
+          <t>Children Servants, Divine, Female, Humanoid, Servant, Threat to Humanity</t>
+        </is>
+      </c>
+      <c r="Z286" t="inlineStr">
+        <is>
+          <t>QQABB</t>
+        </is>
+      </c>
+      <c r="AA286" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE286" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AF286" t="inlineStr">
+        <is>
+          <t>Anti-Unit</t>
+        </is>
+      </c>
+      <c r="AG286" t="inlineStr">
+        <is>
+          <t>Buster</t>
+        </is>
+      </c>
+      <c r="AH286" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Tomoe Gozen (Saber)</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>290</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>4-Star</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>巴御前</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G287" t="n">
+        <v>12</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1590</v>
+      </c>
+      <c r="I287" t="n">
+        <v>9544</v>
+      </c>
+      <c r="J287" t="n">
+        <v>1957</v>
+      </c>
+      <c r="K287" t="n">
+        <v>12233</v>
+      </c>
+      <c r="L287" t="n">
+        <v>11556</v>
+      </c>
+      <c r="M287" t="n">
+        <v>14832</v>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>Kanemoto Hisako</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>Shirabi</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>Linear</t>
+        </is>
+      </c>
+      <c r="R287" t="n">
+        <v>102</v>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+      <c r="W287" t="inlineStr">
+        <is>
+          <t>Neutral   Good</t>
+        </is>
+      </c>
+      <c r="X287" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t>Demonic, Female, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z287" t="inlineStr">
+        <is>
+          <t>QAABB</t>
+        </is>
+      </c>
+      <c r="AA287" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE287" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AF287" t="inlineStr">
+        <is>
+          <t>Anti-Army</t>
+        </is>
+      </c>
+      <c r="AG287" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="AH287" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Total Servant Database.xlsx
+++ b/Total Servant Database.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH288"/>
+  <dimension ref="A1:AH291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Female, Humanoid, King, Servant, Weak to Enuma Elish</t>
+          <t>Female, Humanoid, King, Nobunaga, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -25749,7 +25749,7 @@
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>Female, Humanoid, King, Servant, Weak to Enuma Elish</t>
+          <t>Female, Humanoid, King, Nobunaga, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z176" t="inlineStr">
@@ -35985,7 +35985,7 @@
       </c>
       <c r="Y247" t="inlineStr">
         <is>
-          <t>Humanoid, King, Servant, Weak to Enuma Elish</t>
+          <t>Humanoid, King, Nobunaga, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z247" t="inlineStr">
@@ -41930,6 +41930,442 @@
       </c>
       <c r="AH288" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Himiko</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>292</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>5-Star</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Ruler</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>卑弥呼</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>親魏倭王</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>16</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1647</v>
+      </c>
+      <c r="I289" t="n">
+        <v>10659</v>
+      </c>
+      <c r="J289" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K289" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L289" t="n">
+        <v>11668</v>
+      </c>
+      <c r="M289" t="n">
+        <v>16433</v>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>Tamura Yukari</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>toi8</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>Semi Reverse S</t>
+        </is>
+      </c>
+      <c r="R289" t="n">
+        <v>100</v>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>9.9%</t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="V289" t="inlineStr">
+        <is>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="W289" t="inlineStr">
+        <is>
+          <t>Chaotic Good</t>
+        </is>
+      </c>
+      <c r="X289" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="Y289" t="inlineStr">
+        <is>
+          <t>Female, Humanoid, King, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z289" t="inlineStr">
+        <is>
+          <t>QAABB</t>
+        </is>
+      </c>
+      <c r="AA289" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE289" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AF289" t="inlineStr">
+        <is>
+          <t>Barrier</t>
+        </is>
+      </c>
+      <c r="AG289" t="inlineStr">
+        <is>
+          <t>Buster</t>
+        </is>
+      </c>
+      <c r="AH289" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Saitō_Hajime</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>293</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>4-Star</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>斎藤一</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>12</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1570</v>
+      </c>
+      <c r="I290" t="n">
+        <v>9425</v>
+      </c>
+      <c r="J290" t="n">
+        <v>1899</v>
+      </c>
+      <c r="K290" t="n">
+        <v>11873</v>
+      </c>
+      <c r="L290" t="n">
+        <v>11412</v>
+      </c>
+      <c r="M290" t="n">
+        <v>14396</v>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>Ishikawa Kaito</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>Ikezawa Shin</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>Linear</t>
+        </is>
+      </c>
+      <c r="R290" t="n">
+        <v>102</v>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>0.76%</t>
+        </is>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="W290" t="inlineStr">
+        <is>
+          <t>Lawful   Neutral</t>
+        </is>
+      </c>
+      <c r="X290" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="Y290" t="inlineStr">
+        <is>
+          <t>Humanoid, Male, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z290" t="inlineStr">
+        <is>
+          <t>QAABB</t>
+        </is>
+      </c>
+      <c r="AA290" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF290" t="inlineStr">
+        <is>
+          <t>Anti-Unit Mystic Sword</t>
+        </is>
+      </c>
+      <c r="AG290" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="AH290" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Oda Nobukatsu</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>294</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>1-Star</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>織田信勝</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Kattsu</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>3</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1930</v>
+      </c>
+      <c r="I291" t="n">
+        <v>5116</v>
+      </c>
+      <c r="J291" t="n">
+        <v>1512</v>
+      </c>
+      <c r="K291" t="n">
+        <v>7563</v>
+      </c>
+      <c r="L291" t="n">
+        <v>7949</v>
+      </c>
+      <c r="M291" t="n">
+        <v>11659</v>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>Yamashita Daiki</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>pako</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>Semi Reverse S</t>
+        </is>
+      </c>
+      <c r="R291" t="n">
+        <v>145</v>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="W291" t="inlineStr">
+        <is>
+          <t>Chaotic Good</t>
+        </is>
+      </c>
+      <c r="X291" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="Y291" t="inlineStr">
+        <is>
+          <t>Humanoid, Male, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z291" t="inlineStr">
+        <is>
+          <t>QQABB</t>
+        </is>
+      </c>
+      <c r="AA291" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE291" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AF291" t="inlineStr">
+        <is>
+          <t>Anti-Unit</t>
+        </is>
+      </c>
+      <c r="AG291" t="inlineStr">
+        <is>
+          <t>Buster</t>
+        </is>
+      </c>
+      <c r="AH291" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Total Servant Database.xlsx
+++ b/Total Servant Database.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH291"/>
+  <dimension ref="A1:AH293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mashu Kirielite, Mash, Matthew</t>
+          <t>Mashu Kirielite, Mash (Official Translation)</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA2" t="n">
@@ -675,7 +675,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA3" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -938,7 +938,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA4" t="n">
@@ -965,7 +965,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA5" t="n">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA6" t="n">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA7" t="n">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA8" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA9" t="n">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA10" t="n">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA11" t="n">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2011,7 +2011,7 @@
       <c r="F12" t="inlineStr">
         <is>
           <t>Wrought Iron Hero (錬鉄の英霊, Rentetsu no Eirei?)
-Emiya Shirou (衛宮士郎, Emiya Shirō?), Nameless/No Name (無銘), Red Archer, Faker (フェイカー), Hero of Justice (正義の味方)</t>
+Emiya Shirou (衛宮士郎, Emiya Shirō?), Nameless/No Name (無銘), Red Archer, Red Bowman, Faker (フェイカー), Hero of Justice (正義の味方)</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA12" t="n">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA13" t="n">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA14" t="n">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA15" t="n">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA16" t="n">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA17" t="n">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA18" t="n">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA19" t="n">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA20" t="n">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA21" t="n">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA22" t="n">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA23" t="n">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA24" t="n">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA25" t="n">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA26" t="n">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA27" t="n">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA28" t="n">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA29" t="n">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA30" t="n">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA31" t="n">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA32" t="n">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA33" t="n">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Koyasu Takehito</t>
+          <t>Koyasu Takehito, Tanaka Rie</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA34" t="n">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA35" t="n">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA36" t="n">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA37" t="n">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
@@ -5851,7 +5851,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA38" t="n">
@@ -5878,7 +5878,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA39" t="n">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA40" t="n">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA41" t="n">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA42" t="n">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA43" t="n">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -6719,7 +6719,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA44" t="n">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA45" t="n">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA46" t="n">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH46" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA47" t="n">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -7297,7 +7297,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA48" t="n">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA49" t="n">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA50" t="n">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -7729,7 +7729,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA51" t="n">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA52" t="n">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -8017,7 +8017,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA53" t="n">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA54" t="n">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH54" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA55" t="n">
@@ -8334,7 +8334,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH55" t="inlineStr">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA56" t="n">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA57" t="n">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA58" t="n">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -8885,7 +8885,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA59" t="n">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Holy Maiden of Salvation (救国の聖女, Kyūkoku no Seijo?)Joan of Arc, La Pucelle d'Orléans, The Maiden of Orleans, St. Joan, Laeticia</t>
+          <t>Holy Maiden of Salvation (救国の聖女, Kyūkoku no Seijo?)Joan of Arc, Juana de Arco, La Pucelle d'Orléans, The Maiden of Orleans, St. Joan, Laeticia</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA60" t="n">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH60" t="inlineStr">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Artemis (アルテミス?), Super Orion</t>
+          <t>Artemis (アルテミス?)</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA61" t="n">
@@ -9202,7 +9202,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA62" t="n">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA63" t="n">
@@ -9490,7 +9490,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH63" t="inlineStr">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA64" t="n">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA65" t="n">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -9897,7 +9897,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA66" t="n">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA67" t="n">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA68" t="n">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH68" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA69" t="n">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA70" t="n">
@@ -10502,7 +10502,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA71" t="n">
@@ -10646,7 +10646,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA72" t="n">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA73" t="n">
@@ -10934,7 +10934,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA74" t="n">
@@ -11078,7 +11078,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA75" t="n">
@@ -11222,7 +11222,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA76" t="n">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA77" t="n">
@@ -11510,7 +11510,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA78" t="n">
@@ -11654,7 +11654,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA79" t="n">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA80" t="n">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -12060,7 +12060,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA81" t="n">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -12204,7 +12204,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA82" t="n">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="AG82" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH82" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA83" t="n">
@@ -12377,7 +12377,7 @@
       </c>
       <c r="AG83" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH83" t="inlineStr">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA84" t="n">
@@ -12523,7 +12523,7 @@
       </c>
       <c r="AG84" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH84" t="n">
@@ -12640,7 +12640,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA85" t="n">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="AG85" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH85" t="n">
@@ -12784,7 +12784,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA86" t="n">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="AG86" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH86" t="n">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA87" t="n">
@@ -12955,7 +12955,7 @@
       </c>
       <c r="AG87" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH87" t="n">
@@ -13072,7 +13072,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA88" t="n">
@@ -13099,7 +13099,7 @@
       </c>
       <c r="AG88" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH88" t="n">
@@ -13216,7 +13216,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA89" t="n">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="AG89" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH89" t="n">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA90" t="n">
@@ -13387,7 +13387,7 @@
       </c>
       <c r="AG90" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH90" t="n">
@@ -13504,7 +13504,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA91" t="n">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="AG91" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH91" t="n">
@@ -13648,7 +13648,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA92" t="n">
@@ -13675,7 +13675,7 @@
       </c>
       <c r="AG92" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH92" t="n">
@@ -13792,7 +13792,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA93" t="n">
@@ -13819,7 +13819,7 @@
       </c>
       <c r="AG93" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH93" t="n">
@@ -13936,7 +13936,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA94" t="n">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="AG94" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH94" t="n">
@@ -14080,7 +14080,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA95" t="n">
@@ -14107,7 +14107,7 @@
       </c>
       <c r="AG95" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH95" t="n">
@@ -14224,7 +14224,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA96" t="n">
@@ -14251,7 +14251,7 @@
       </c>
       <c r="AG96" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH96" t="n">
@@ -14368,7 +14368,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA97" t="n">
@@ -14395,7 +14395,7 @@
       </c>
       <c r="AG97" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH97" t="n">
@@ -14482,7 +14482,7 @@
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>0.77%</t>
+          <t>0.77%,  0.5%</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
@@ -14512,7 +14512,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA98" t="n">
@@ -14539,7 +14539,7 @@
       </c>
       <c r="AG98" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH98" t="inlineStr">
@@ -14658,7 +14658,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA99" t="n">
@@ -14685,7 +14685,7 @@
       </c>
       <c r="AG99" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH99" t="n">
@@ -14802,7 +14802,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA100" t="n">
@@ -14829,7 +14829,7 @@
       </c>
       <c r="AG100" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH100" t="n">
@@ -14946,7 +14946,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA101" t="n">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="AG101" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH101" t="n">
@@ -15090,7 +15090,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA102" t="n">
@@ -15117,7 +15117,7 @@
       </c>
       <c r="AG102" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH102" t="n">
@@ -15234,7 +15234,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA103" t="n">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="AG103" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH103" t="n">
@@ -15378,7 +15378,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA104" t="n">
@@ -15405,7 +15405,7 @@
       </c>
       <c r="AG104" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH104" t="n">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA105" t="n">
@@ -15549,7 +15549,7 @@
       </c>
       <c r="AG105" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH105" t="n">
@@ -15666,7 +15666,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA106" t="n">
@@ -15693,7 +15693,7 @@
       </c>
       <c r="AG106" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH106" t="n">
@@ -15810,7 +15810,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA107" t="n">
@@ -15837,7 +15837,7 @@
       </c>
       <c r="AG107" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH107" t="n">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA108" t="n">
@@ -15981,7 +15981,7 @@
       </c>
       <c r="AG108" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH108" t="inlineStr">
@@ -16100,7 +16100,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA109" t="n">
@@ -16127,7 +16127,7 @@
       </c>
       <c r="AG109" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH109" t="n">
@@ -16244,7 +16244,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA110" t="n">
@@ -16271,7 +16271,7 @@
       </c>
       <c r="AG110" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH110" t="n">
@@ -16330,12 +16330,12 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Koyama Rikiya</t>
+          <t>Koyama Rikiya, Ohara Sayaka</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>AKIRA</t>
+          <t>???</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -16358,7 +16358,7 @@
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>0.46% 0.28%</t>
+          <t>0.46%,  0.28%</t>
         </is>
       </c>
       <c r="U111" t="inlineStr">
@@ -16388,7 +16388,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA111" t="n">
@@ -16415,7 +16415,7 @@
       </c>
       <c r="AG111" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH111" t="n">
@@ -16502,7 +16502,7 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>0.48% 0.38%</t>
+          <t>0.48%,  0.38%</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA112" t="n">
@@ -16559,7 +16559,7 @@
       </c>
       <c r="AG112" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH112" t="n">
@@ -16676,7 +16676,7 @@
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA113" t="n">
@@ -16703,7 +16703,7 @@
       </c>
       <c r="AG113" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH113" t="inlineStr">
@@ -16817,12 +16817,12 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>Demonic, Divine, Dragon, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Demonic, Divine, Dragon, Female, Humanoid, Servant, Shuten Dōji, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA114" t="n">
@@ -16849,7 +16849,7 @@
       </c>
       <c r="AG114" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH114" t="n">
@@ -16966,7 +16966,7 @@
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA115" t="n">
@@ -16993,7 +16993,7 @@
       </c>
       <c r="AG115" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH115" t="n">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA116" t="n">
@@ -17137,7 +17137,7 @@
       </c>
       <c r="AG116" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH116" t="n">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA117" t="n">
@@ -17281,7 +17281,7 @@
       </c>
       <c r="AG117" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH117" t="n">
@@ -17398,7 +17398,7 @@
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA118" t="n">
@@ -17425,7 +17425,7 @@
       </c>
       <c r="AG118" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH118" t="n">
@@ -17542,7 +17542,7 @@
       </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA119" t="n">
@@ -17569,7 +17569,7 @@
       </c>
       <c r="AG119" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH119" t="n">
@@ -17686,7 +17686,7 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA120" t="n">
@@ -17713,7 +17713,7 @@
       </c>
       <c r="AG120" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH120" t="n">
@@ -17830,7 +17830,7 @@
       </c>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA121" t="n">
@@ -17857,7 +17857,7 @@
       </c>
       <c r="AG121" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH121" t="n">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Avatar of the Sky (天空の化身, Tenkū no Keshin?)Nitocret</t>
+          <t>Avatar of the Sky (天空の化身, Tenkū no Keshin?)Nitocret, Neithikerty</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -17974,7 +17974,7 @@
       </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA122" t="n">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="AG122" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH122" t="n">
@@ -18118,7 +18118,7 @@
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA123" t="n">
@@ -18145,7 +18145,7 @@
       </c>
       <c r="AG123" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH123" t="n">
@@ -18262,7 +18262,7 @@
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA124" t="n">
@@ -18289,7 +18289,7 @@
       </c>
       <c r="AG124" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH124" t="n">
@@ -18406,7 +18406,7 @@
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA125" t="n">
@@ -18433,7 +18433,7 @@
       </c>
       <c r="AG125" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH125" t="n">
@@ -18550,7 +18550,7 @@
       </c>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA126" t="n">
@@ -18577,7 +18577,7 @@
       </c>
       <c r="AG126" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH126" t="n">
@@ -18694,7 +18694,7 @@
       </c>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA127" t="n">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="AG127" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH127" t="n">
@@ -18838,7 +18838,7 @@
       </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA128" t="n">
@@ -18865,7 +18865,7 @@
       </c>
       <c r="AG128" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH128" t="n">
@@ -18898,7 +18898,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Universal Genius (万能の天才), Da Vinci-chan (ダ・ヴィンチちゃん), Shopkeeper</t>
+          <t>Universal Genius (万能の天才?), Da Vinci-chan (ダ・ヴィンチちゃん?), Shopkeeper</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -18982,7 +18982,7 @@
       </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA129" t="n">
@@ -19009,7 +19009,7 @@
       </c>
       <c r="AG129" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH129" t="n">
@@ -19126,7 +19126,7 @@
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA130" t="n">
@@ -19153,7 +19153,7 @@
       </c>
       <c r="AG130" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH130" t="n">
@@ -19270,7 +19270,7 @@
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA131" t="n">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="AG131" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH131" t="n">
@@ -19414,7 +19414,7 @@
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA132" t="n">
@@ -19441,7 +19441,7 @@
       </c>
       <c r="AG132" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH132" t="n">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA133" t="n">
@@ -19585,7 +19585,7 @@
       </c>
       <c r="AG133" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH133" t="n">
@@ -19702,7 +19702,7 @@
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA134" t="n">
@@ -19729,7 +19729,7 @@
       </c>
       <c r="AG134" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH134" t="n">
@@ -19846,7 +19846,7 @@
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA135" t="n">
@@ -19873,7 +19873,7 @@
       </c>
       <c r="AG135" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH135" t="n">
@@ -19990,7 +19990,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA136" t="n">
@@ -20017,7 +20017,7 @@
       </c>
       <c r="AG136" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH136" t="n">
@@ -20134,7 +20134,7 @@
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA137" t="n">
@@ -20161,7 +20161,7 @@
       </c>
       <c r="AG137" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH137" t="n">
@@ -20278,7 +20278,7 @@
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA138" t="n">
@@ -20305,7 +20305,7 @@
       </c>
       <c r="AG138" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH138" t="n">
@@ -20422,7 +20422,7 @@
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA139" t="n">
@@ -20449,7 +20449,7 @@
       </c>
       <c r="AG139" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH139" t="n">
@@ -20566,7 +20566,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA140" t="n">
@@ -20593,7 +20593,7 @@
       </c>
       <c r="AG140" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH140" t="n">
@@ -20710,7 +20710,7 @@
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA141" t="n">
@@ -20737,7 +20737,7 @@
       </c>
       <c r="AG141" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH141" t="n">
@@ -20854,7 +20854,7 @@
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA142" t="n">
@@ -20881,7 +20881,7 @@
       </c>
       <c r="AG142" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH142" t="n">
@@ -20998,7 +20998,7 @@
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA143" t="n">
@@ -21025,7 +21025,7 @@
       </c>
       <c r="AG143" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH143" t="n">
@@ -21142,7 +21142,7 @@
       </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA144" t="n">
@@ -21169,7 +21169,7 @@
       </c>
       <c r="AG144" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH144" t="n">
@@ -21286,7 +21286,7 @@
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA145" t="n">
@@ -21313,7 +21313,7 @@
       </c>
       <c r="AG145" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH145" t="n">
@@ -21430,7 +21430,7 @@
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA146" t="n">
@@ -21457,7 +21457,7 @@
       </c>
       <c r="AG146" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH146" t="n">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>0.32% 0.16%</t>
+          <t>0.32%,  0.16%</t>
         </is>
       </c>
       <c r="U147" t="inlineStr">
@@ -21574,7 +21574,7 @@
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA147" t="n">
@@ -21601,7 +21601,7 @@
       </c>
       <c r="AG147" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH147" t="n">
@@ -21718,7 +21718,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA148" t="n">
@@ -21745,7 +21745,7 @@
       </c>
       <c r="AG148" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH148" t="n">
@@ -21862,7 +21862,7 @@
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA149" t="n">
@@ -21889,7 +21889,7 @@
       </c>
       <c r="AG149" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH149" t="n">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA150" t="n">
@@ -22033,7 +22033,7 @@
       </c>
       <c r="AG150" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH150" t="n">
@@ -22092,7 +22092,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>Sakurai Takahiro</t>
+          <t>Sakurai Takahiro, Kawasumi Ayako</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -22150,7 +22150,7 @@
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA151" t="n">
@@ -22177,7 +22177,7 @@
       </c>
       <c r="AG151" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH151" t="inlineStr">
@@ -22296,7 +22296,7 @@
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA152" t="n">
@@ -22323,7 +22323,7 @@
       </c>
       <c r="AG152" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH152" t="n">
@@ -22356,7 +22356,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>King Hassan, First Hassan</t>
+          <t>King Hassan, First Hassan, Hassan-i Sabbah</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -22440,7 +22440,7 @@
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA153" t="n">
@@ -22467,7 +22467,7 @@
       </c>
       <c r="AG153" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH153" t="n">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA154" t="n">
@@ -22611,7 +22611,7 @@
       </c>
       <c r="AG154" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH154" t="n">
@@ -22728,7 +22728,7 @@
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA155" t="n">
@@ -22755,7 +22755,7 @@
       </c>
       <c r="AG155" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH155" t="n">
@@ -22872,7 +22872,7 @@
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA156" t="n">
@@ -22899,7 +22899,7 @@
       </c>
       <c r="AG156" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH156" t="n">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA157" t="n">
@@ -23043,7 +23043,7 @@
       </c>
       <c r="AG157" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH157" t="n">
@@ -23160,7 +23160,7 @@
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA158" t="n">
@@ -23187,7 +23187,7 @@
       </c>
       <c r="AG158" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH158" t="n">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA159" t="n">
@@ -23331,7 +23331,7 @@
       </c>
       <c r="AG159" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH159" t="n">
@@ -23448,7 +23448,7 @@
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA160" t="n">
@@ -23475,7 +23475,7 @@
       </c>
       <c r="AG160" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH160" t="n">
@@ -23592,7 +23592,7 @@
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA161" t="n">
@@ -23619,7 +23619,7 @@
       </c>
       <c r="AG161" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH161" t="n">
@@ -23736,7 +23736,7 @@
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA162" t="n">
@@ -23763,7 +23763,7 @@
       </c>
       <c r="AG162" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH162" t="n">
@@ -23880,7 +23880,7 @@
       </c>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA163" t="n">
@@ -23907,7 +23907,7 @@
       </c>
       <c r="AG163" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH163" t="n">
@@ -24024,7 +24024,7 @@
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA164" t="n">
@@ -24051,7 +24051,7 @@
       </c>
       <c r="AG164" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH164" t="n">
@@ -24168,7 +24168,7 @@
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA165" t="n">
@@ -24195,7 +24195,7 @@
       </c>
       <c r="AG165" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH165" t="n">
@@ -24312,7 +24312,7 @@
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA166" t="n">
@@ -24339,7 +24339,7 @@
       </c>
       <c r="AG166" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH166" t="n">
@@ -24456,7 +24456,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA167" t="n">
@@ -24483,7 +24483,7 @@
       </c>
       <c r="AG167" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH167" t="n">
@@ -24516,7 +24516,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Assassin of Nightless City (不夜城のアサシン?), Fūyā-chan, Nite Brite</t>
+          <t>Assassin of Nightless City (不夜城のアサシン?), Fūyā-chan, Nite Brite, Bu Sokuten</t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -24600,7 +24600,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA168" t="n">
@@ -24627,7 +24627,7 @@
       </c>
       <c r="AG168" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH168" t="n">
@@ -24744,7 +24744,7 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA169" t="n">
@@ -24771,7 +24771,7 @@
       </c>
       <c r="AG169" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH169" t="n">
@@ -24888,7 +24888,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA170" t="n">
@@ -24915,7 +24915,7 @@
       </c>
       <c r="AG170" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH170" t="n">
@@ -25032,7 +25032,7 @@
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA171" t="n">
@@ -25059,7 +25059,7 @@
       </c>
       <c r="AG171" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH171" t="inlineStr">
@@ -25178,7 +25178,7 @@
       </c>
       <c r="Z172" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA172" t="n">
@@ -25205,7 +25205,7 @@
       </c>
       <c r="AG172" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH172" t="n">
@@ -25322,7 +25322,7 @@
       </c>
       <c r="Z173" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA173" t="n">
@@ -25349,7 +25349,7 @@
       </c>
       <c r="AG173" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH173" t="n">
@@ -25466,7 +25466,7 @@
       </c>
       <c r="Z174" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA174" t="n">
@@ -25493,7 +25493,7 @@
       </c>
       <c r="AG174" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH174" t="n">
@@ -25610,7 +25610,7 @@
       </c>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA175" t="n">
@@ -25637,7 +25637,7 @@
       </c>
       <c r="AG175" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH175" t="n">
@@ -25754,7 +25754,7 @@
       </c>
       <c r="Z176" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA176" t="n">
@@ -25781,7 +25781,7 @@
       </c>
       <c r="AG176" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH176" t="n">
@@ -25898,7 +25898,7 @@
       </c>
       <c r="Z177" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA177" t="n">
@@ -25925,7 +25925,7 @@
       </c>
       <c r="AG177" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH177" t="n">
@@ -26042,7 +26042,7 @@
       </c>
       <c r="Z178" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA178" t="n">
@@ -26069,7 +26069,7 @@
       </c>
       <c r="AG178" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH178" t="n">
@@ -26186,7 +26186,7 @@
       </c>
       <c r="Z179" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA179" t="n">
@@ -26213,7 +26213,7 @@
       </c>
       <c r="AG179" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH179" t="n">
@@ -26330,7 +26330,7 @@
       </c>
       <c r="Z180" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA180" t="n">
@@ -26357,7 +26357,7 @@
       </c>
       <c r="AG180" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH180" t="n">
@@ -26474,7 +26474,7 @@
       </c>
       <c r="Z181" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA181" t="n">
@@ -26501,7 +26501,7 @@
       </c>
       <c r="AG181" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH181" t="n">
@@ -26618,7 +26618,7 @@
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA182" t="n">
@@ -26645,7 +26645,7 @@
       </c>
       <c r="AG182" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH182" t="n">
@@ -26762,7 +26762,7 @@
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA183" t="n">
@@ -26789,7 +26789,7 @@
       </c>
       <c r="AG183" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH183" t="n">
@@ -26906,7 +26906,7 @@
       </c>
       <c r="Z184" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA184" t="n">
@@ -26933,7 +26933,7 @@
       </c>
       <c r="AG184" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH184" t="inlineStr">
@@ -27052,7 +27052,7 @@
       </c>
       <c r="Z185" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA185" t="n">
@@ -27079,7 +27079,7 @@
       </c>
       <c r="AG185" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH185" t="n">
@@ -27196,7 +27196,7 @@
       </c>
       <c r="Z186" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA186" t="n">
@@ -27223,7 +27223,7 @@
       </c>
       <c r="AG186" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH186" t="n">
@@ -27340,7 +27340,7 @@
       </c>
       <c r="Z187" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA187" t="n">
@@ -27367,7 +27367,7 @@
       </c>
       <c r="AG187" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH187" t="inlineStr">
@@ -27486,7 +27486,7 @@
       </c>
       <c r="Z188" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA188" t="n">
@@ -27513,7 +27513,7 @@
       </c>
       <c r="AG188" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH188" t="n">
@@ -27630,7 +27630,7 @@
       </c>
       <c r="Z189" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA189" t="n">
@@ -27657,7 +27657,7 @@
       </c>
       <c r="AG189" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH189" t="n">
@@ -27774,7 +27774,7 @@
       </c>
       <c r="Z190" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA190" t="n">
@@ -27801,7 +27801,7 @@
       </c>
       <c r="AG190" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH190" t="n">
@@ -27918,7 +27918,7 @@
       </c>
       <c r="Z191" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA191" t="n">
@@ -27945,7 +27945,7 @@
       </c>
       <c r="AG191" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH191" t="n">
@@ -27978,7 +27978,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Caster of Midrash (ミドラーシュのキャスター?), Bilqis, Makeda</t>
+          <t>Caster of Midrash (ミドラーシュのキャスター?), Bilqis, Makeda, Tituba</t>
         </is>
       </c>
       <c r="G192" t="n">
@@ -28062,7 +28062,7 @@
       </c>
       <c r="Z192" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA192" t="n">
@@ -28089,7 +28089,7 @@
       </c>
       <c r="AG192" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH192" t="n">
@@ -28201,12 +28201,12 @@
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>Children Servants, Divine, Female, Humanoid, Servant, Threat to Humanity</t>
+          <t>Children Servants, Divine, Existence Outside the Domain, Female, Humanoid, Servant, Threat to Humanity</t>
         </is>
       </c>
       <c r="Z193" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA193" t="n">
@@ -28233,7 +28233,7 @@
       </c>
       <c r="AG193" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH193" t="n">
@@ -28350,7 +28350,7 @@
       </c>
       <c r="Z194" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA194" t="n">
@@ -28377,7 +28377,7 @@
       </c>
       <c r="AG194" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH194" t="n">
@@ -28494,7 +28494,7 @@
       </c>
       <c r="Z195" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA195" t="n">
@@ -28521,7 +28521,7 @@
       </c>
       <c r="AG195" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH195" t="n">
@@ -28633,12 +28633,12 @@
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>Divine, Female, Humanoid, Servant, Threat to Humanity, Weak to Enuma Elish</t>
+          <t>Divine, Existence Outside the Domain, Female, Humanoid, Servant, Threat to Humanity, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z196" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA196" t="n">
@@ -28665,7 +28665,7 @@
       </c>
       <c r="AG196" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH196" t="n">
@@ -28782,7 +28782,7 @@
       </c>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA197" t="n">
@@ -28809,7 +28809,7 @@
       </c>
       <c r="AG197" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH197" t="n">
@@ -28926,7 +28926,7 @@
       </c>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA198" t="n">
@@ -28953,7 +28953,7 @@
       </c>
       <c r="AG198" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH198" t="n">
@@ -29070,7 +29070,7 @@
       </c>
       <c r="Z199" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA199" t="n">
@@ -29097,7 +29097,7 @@
       </c>
       <c r="AG199" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH199" t="n">
@@ -29214,7 +29214,7 @@
       </c>
       <c r="Z200" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA200" t="n">
@@ -29241,7 +29241,7 @@
       </c>
       <c r="AG200" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH200" t="n">
@@ -29358,7 +29358,7 @@
       </c>
       <c r="Z201" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA201" t="n">
@@ -29385,7 +29385,7 @@
       </c>
       <c r="AG201" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH201" t="n">
@@ -29502,7 +29502,7 @@
       </c>
       <c r="Z202" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA202" t="n">
@@ -29529,7 +29529,7 @@
       </c>
       <c r="AG202" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH202" t="n">
@@ -29646,7 +29646,7 @@
       </c>
       <c r="Z203" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA203" t="n">
@@ -29673,7 +29673,7 @@
       </c>
       <c r="AG203" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH203" t="n">
@@ -29790,7 +29790,7 @@
       </c>
       <c r="Z204" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA204" t="n">
@@ -29817,7 +29817,7 @@
       </c>
       <c r="AG204" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH204" t="n">
@@ -29932,7 +29932,7 @@
       </c>
       <c r="Z205" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA205" t="n">
@@ -29959,7 +29959,7 @@
       </c>
       <c r="AG205" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH205" t="n">
@@ -30076,7 +30076,7 @@
       </c>
       <c r="Z206" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA206" t="n">
@@ -30103,7 +30103,7 @@
       </c>
       <c r="AG206" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH206" t="n">
@@ -30220,7 +30220,7 @@
       </c>
       <c r="Z207" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA207" t="n">
@@ -30247,7 +30247,7 @@
       </c>
       <c r="AG207" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH207" t="n">
@@ -30364,7 +30364,7 @@
       </c>
       <c r="Z208" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA208" t="n">
@@ -30391,7 +30391,7 @@
       </c>
       <c r="AG208" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH208" t="n">
@@ -30508,7 +30508,7 @@
       </c>
       <c r="Z209" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA209" t="n">
@@ -30535,7 +30535,7 @@
       </c>
       <c r="AG209" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH209" t="n">
@@ -30652,7 +30652,7 @@
       </c>
       <c r="Z210" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA210" t="n">
@@ -30679,7 +30679,7 @@
       </c>
       <c r="AG210" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH210" t="n">
@@ -30796,7 +30796,7 @@
       </c>
       <c r="Z211" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA211" t="n">
@@ -30823,7 +30823,7 @@
       </c>
       <c r="AG211" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH211" t="n">
@@ -30856,7 +30856,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Daughters of the Great God (大神の娘たち), ヴァルキリー, Walküre, Walküre Ortlinde, Walküre Hildr, Walküre Thrúd (Þrúðr)</t>
+          <t>Daughters of the Great God (大神の娘たち), ヴァルキリー, Walküre, Ortlinde, Hildr, Thrúd (Þrúðr)</t>
         </is>
       </c>
       <c r="G212" t="n">
@@ -30940,7 +30940,7 @@
       </c>
       <c r="Z212" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA212" t="n">
@@ -30967,7 +30967,7 @@
       </c>
       <c r="AG212" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH212" t="n">
@@ -31084,7 +31084,7 @@
       </c>
       <c r="Z213" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA213" t="n">
@@ -31111,7 +31111,7 @@
       </c>
       <c r="AG213" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH213" t="inlineStr">
@@ -31230,7 +31230,7 @@
       </c>
       <c r="Z214" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA214" t="n">
@@ -31257,7 +31257,7 @@
       </c>
       <c r="AG214" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH214" t="n">
@@ -31374,7 +31374,7 @@
       </c>
       <c r="Z215" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA215" t="n">
@@ -31401,7 +31401,7 @@
       </c>
       <c r="AG215" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH215" t="n">
@@ -31518,7 +31518,7 @@
       </c>
       <c r="Z216" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA216" t="n">
@@ -31545,7 +31545,7 @@
       </c>
       <c r="AG216" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH216" t="n">
@@ -31662,7 +31662,7 @@
       </c>
       <c r="Z217" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA217" t="n">
@@ -31689,7 +31689,7 @@
       </c>
       <c r="AG217" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH217" t="n">
@@ -31801,12 +31801,12 @@
       </c>
       <c r="Y218" t="inlineStr">
         <is>
-          <t>Divine, Giant, Female, Servant, Super Large, Weak to Enuma ElishEnemy Ver. Traits: Threat to Humanity</t>
+          <t>Divine, Existence Outside the Domain, Female, Giant, Servant, Super Large, Weak to Enuma ElishEnemy Ver. Traits: Threat to Humanity</t>
         </is>
       </c>
       <c r="Z218" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA218" t="n">
@@ -31833,7 +31833,7 @@
       </c>
       <c r="AG218" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH218" t="n">
@@ -31950,7 +31950,7 @@
       </c>
       <c r="Z219" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA219" t="n">
@@ -31977,7 +31977,7 @@
       </c>
       <c r="AG219" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH219" t="n">
@@ -32089,12 +32089,12 @@
       </c>
       <c r="Y220" t="inlineStr">
         <is>
-          <t>Arthur, Brynhildr's Beloved, Dragon, Female, Humanoid, King, Riding, Saberface, Servant</t>
+          <t>Arthur, Brynhildr's Beloved, Dragon, Existence Outside the Domain, Female, Humanoid, King, Riding, Saberface, Servant</t>
         </is>
       </c>
       <c r="Z220" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA220" t="n">
@@ -32121,7 +32121,7 @@
       </c>
       <c r="AG220" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH220" t="n">
@@ -32238,7 +32238,7 @@
       </c>
       <c r="Z221" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA221" t="n">
@@ -32265,7 +32265,7 @@
       </c>
       <c r="AG221" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH221" t="n">
@@ -32382,7 +32382,7 @@
       </c>
       <c r="Z222" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA222" t="n">
@@ -32409,7 +32409,7 @@
       </c>
       <c r="AG222" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH222" t="n">
@@ -32442,7 +32442,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Gohou Shoujo Oni-Cure (護法少女・鬼救阿おにきゅあ, Gohō Shōjo Onikyua?)</t>
+          <t>Magifender Girl Oni Cure (護法少女・鬼救阿おにきゅあ, Gohō Shōjo Onikyua?)</t>
         </is>
       </c>
       <c r="G223" t="n">
@@ -32517,12 +32517,12 @@
       </c>
       <c r="Y223" t="inlineStr">
         <is>
-          <t>Demonic, Divine, Dragon, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Demonic, Divine, Dragon, Female, Humanoid, Servant, Shuten Dōji, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z223" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA223" t="n">
@@ -32549,7 +32549,7 @@
       </c>
       <c r="AG223" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH223" t="n">
@@ -32582,7 +32582,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>西楚霸王, Xī Chǔ Bà Wáng, Kō U</t>
+          <t>Kuaiji Zero, 西楚霸王, Xī Chǔ Bà Wáng, Kō U</t>
         </is>
       </c>
       <c r="G224" t="n">
@@ -32666,7 +32666,7 @@
       </c>
       <c r="Z224" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA224" t="n">
@@ -32693,7 +32693,7 @@
       </c>
       <c r="AG224" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH224" t="n">
@@ -32726,7 +32726,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Lan Ling Wang, Prince of Lanling, Ran-ryō Ō, Gao Changgong (高长恭?)</t>
+          <t>Prince of Lan Ling, Lan Ling Wang, Ran-ryō Ō, Gao Changgong (高长恭?)</t>
         </is>
       </c>
       <c r="G225" t="n">
@@ -32810,7 +32810,7 @@
       </c>
       <c r="Z225" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA225" t="n">
@@ -32837,7 +32837,7 @@
       </c>
       <c r="AG225" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH225" t="inlineStr">
@@ -32956,7 +32956,7 @@
       </c>
       <c r="Z226" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA226" t="n">
@@ -32983,7 +32983,7 @@
       </c>
       <c r="AG226" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH226" t="inlineStr">
@@ -33102,7 +33102,7 @@
       </c>
       <c r="Z227" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA227" t="n">
@@ -33129,7 +33129,7 @@
       </c>
       <c r="AG227" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH227" t="inlineStr">
@@ -33248,7 +33248,7 @@
       </c>
       <c r="Z228" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA228" t="n">
@@ -33275,7 +33275,7 @@
       </c>
       <c r="AG228" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH228" t="n">
@@ -33392,7 +33392,7 @@
       </c>
       <c r="Z229" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA229" t="n">
@@ -33419,7 +33419,7 @@
       </c>
       <c r="AG229" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH229" t="n">
@@ -33536,7 +33536,7 @@
       </c>
       <c r="Z230" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA230" t="n">
@@ -33563,7 +33563,7 @@
       </c>
       <c r="AG230" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH230" t="n">
@@ -33680,7 +33680,7 @@
       </c>
       <c r="Z231" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA231" t="n">
@@ -33707,7 +33707,7 @@
       </c>
       <c r="AG231" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH231" t="n">
@@ -33824,7 +33824,7 @@
       </c>
       <c r="Z232" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA232" t="n">
@@ -33851,7 +33851,7 @@
       </c>
       <c r="AG232" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH232" t="n">
@@ -33884,7 +33884,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Royal Guard Chief (衛士長, Ēshi-chō?); Massage Expert (按摩の達人, Anma no Tatsujin?), Security Guard (警備員, Kēbiin?)</t>
+          <t>Royal Guard Chief (衛士長, Ēshi-chō?); Massage Expert (按摩の達人, Anma no Tatsujin?), Security Guard (警備員, Kēbiin?), Captain of the Guard (NA)</t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -33968,7 +33968,7 @@
       </c>
       <c r="Z233" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA233" t="n">
@@ -33995,7 +33995,7 @@
       </c>
       <c r="AG233" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH233" t="n">
@@ -34112,7 +34112,7 @@
       </c>
       <c r="Z234" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA234" t="n">
@@ -34139,7 +34139,7 @@
       </c>
       <c r="AG234" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH234" t="inlineStr">
@@ -34258,7 +34258,7 @@
       </c>
       <c r="Z235" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA235" t="n">
@@ -34285,7 +34285,7 @@
       </c>
       <c r="AG235" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH235" t="n">
@@ -34402,7 +34402,7 @@
       </c>
       <c r="Z236" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA236" t="n">
@@ -34429,7 +34429,7 @@
       </c>
       <c r="AG236" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH236" t="n">
@@ -34546,7 +34546,7 @@
       </c>
       <c r="Z237" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA237" t="n">
@@ -34573,7 +34573,7 @@
       </c>
       <c r="AG237" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH237" t="n">
@@ -34690,7 +34690,7 @@
       </c>
       <c r="Z238" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA238" t="n">
@@ -34717,7 +34717,7 @@
       </c>
       <c r="AG238" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH238" t="inlineStr">
@@ -34836,7 +34836,7 @@
       </c>
       <c r="Z239" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA239" t="n">
@@ -34863,7 +34863,7 @@
       </c>
       <c r="AG239" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH239" t="n">
@@ -34980,7 +34980,7 @@
       </c>
       <c r="Z240" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA240" t="n">
@@ -35007,7 +35007,7 @@
       </c>
       <c r="AG240" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH240" t="n">
@@ -35017,7 +35017,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Great Statue God</t>
+          <t>Jinako Carigiri</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -35040,7 +35040,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Ganesha (ガネーシャ?), Jinako Carigiri</t>
+          <t>Ganesha (ガネーシャ?), Great Statue God</t>
         </is>
       </c>
       <c r="G241" t="n">
@@ -35124,7 +35124,7 @@
       </c>
       <c r="Z241" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA241" t="n">
@@ -35151,7 +35151,7 @@
       </c>
       <c r="AG241" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH241" t="n">
@@ -35268,7 +35268,7 @@
       </c>
       <c r="Z242" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA242" t="n">
@@ -35295,7 +35295,7 @@
       </c>
       <c r="AG242" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH242" t="n">
@@ -35412,7 +35412,7 @@
       </c>
       <c r="Z243" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA243" t="n">
@@ -35439,7 +35439,7 @@
       </c>
       <c r="AG243" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH243" t="n">
@@ -35556,7 +35556,7 @@
       </c>
       <c r="Z244" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA244" t="n">
@@ -35583,7 +35583,7 @@
       </c>
       <c r="AG244" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH244" t="n">
@@ -35700,7 +35700,7 @@
       </c>
       <c r="Z245" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA245" t="n">
@@ -35727,7 +35727,7 @@
       </c>
       <c r="AG245" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH245" t="n">
@@ -35844,7 +35844,7 @@
       </c>
       <c r="Z246" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA246" t="n">
@@ -35871,7 +35871,7 @@
       </c>
       <c r="AG246" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH246" t="inlineStr">
@@ -35990,7 +35990,7 @@
       </c>
       <c r="Z247" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA247" t="n">
@@ -36017,7 +36017,7 @@
       </c>
       <c r="AG247" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH247" t="n">
@@ -36134,7 +36134,7 @@
       </c>
       <c r="Z248" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA248" t="n">
@@ -36161,7 +36161,7 @@
       </c>
       <c r="AG248" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH248" t="n">
@@ -36278,7 +36278,7 @@
       </c>
       <c r="Z249" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA249" t="n">
@@ -36305,7 +36305,7 @@
       </c>
       <c r="AG249" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH249" t="n">
@@ -36422,7 +36422,7 @@
       </c>
       <c r="Z250" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA250" t="n">
@@ -36449,7 +36449,7 @@
       </c>
       <c r="AG250" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH250" t="n">
@@ -36566,7 +36566,7 @@
       </c>
       <c r="Z251" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA251" t="n">
@@ -36593,7 +36593,7 @@
       </c>
       <c r="AG251" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH251" t="n">
@@ -36710,7 +36710,7 @@
       </c>
       <c r="Z252" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA252" t="n">
@@ -36737,7 +36737,7 @@
       </c>
       <c r="AG252" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH252" t="n">
@@ -36854,7 +36854,7 @@
       </c>
       <c r="Z253" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA253" t="n">
@@ -36881,7 +36881,7 @@
       </c>
       <c r="AG253" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH253" t="n">
@@ -36998,7 +36998,7 @@
       </c>
       <c r="Z254" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA254" t="n">
@@ -37025,7 +37025,7 @@
       </c>
       <c r="AG254" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH254" t="n">
@@ -37142,7 +37142,7 @@
       </c>
       <c r="Z255" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA255" t="n">
@@ -37169,7 +37169,7 @@
       </c>
       <c r="AG255" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH255" t="n">
@@ -37286,7 +37286,7 @@
       </c>
       <c r="Z256" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA256" t="n">
@@ -37313,7 +37313,7 @@
       </c>
       <c r="AG256" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH256" t="n">
@@ -37430,7 +37430,7 @@
       </c>
       <c r="Z257" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA257" t="n">
@@ -37457,7 +37457,7 @@
       </c>
       <c r="AG257" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH257" t="n">
@@ -37574,7 +37574,7 @@
       </c>
       <c r="Z258" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA258" t="n">
@@ -37601,7 +37601,7 @@
       </c>
       <c r="AG258" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH258" t="n">
@@ -37718,7 +37718,7 @@
       </c>
       <c r="Z259" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA259" t="n">
@@ -37745,7 +37745,7 @@
       </c>
       <c r="AG259" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH259" t="n">
@@ -37862,7 +37862,7 @@
       </c>
       <c r="Z260" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA260" t="n">
@@ -37889,7 +37889,7 @@
       </c>
       <c r="AG260" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH260" t="n">
@@ -38006,7 +38006,7 @@
       </c>
       <c r="Z261" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA261" t="n">
@@ -38033,7 +38033,7 @@
       </c>
       <c r="AG261" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH261" t="n">
@@ -38150,7 +38150,7 @@
       </c>
       <c r="Z262" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA262" t="n">
@@ -38177,7 +38177,7 @@
       </c>
       <c r="AG262" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH262" t="n">
@@ -38294,7 +38294,7 @@
       </c>
       <c r="Z263" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA263" t="n">
@@ -38321,7 +38321,7 @@
       </c>
       <c r="AG263" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH263" t="n">
@@ -38433,12 +38433,12 @@
       </c>
       <c r="Y264" t="inlineStr">
         <is>
-          <t>Female, Humanoid, Saberface, Servant, Weak to Enuma Elish</t>
+          <t>Existence Outside the Domain, Female, Humanoid, Saberface, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z264" t="inlineStr">
         <is>
-          <t>QQQAB</t>
+          <t>QQQAB.png</t>
         </is>
       </c>
       <c r="AA264" t="n">
@@ -38465,7 +38465,7 @@
       </c>
       <c r="AG264" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH264" t="n">
@@ -38582,7 +38582,7 @@
       </c>
       <c r="Z265" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA265" t="n">
@@ -38609,7 +38609,7 @@
       </c>
       <c r="AG265" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH265" t="n">
@@ -38726,7 +38726,7 @@
       </c>
       <c r="Z266" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA266" t="n">
@@ -38753,7 +38753,7 @@
       </c>
       <c r="AG266" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH266" t="n">
@@ -38870,7 +38870,7 @@
       </c>
       <c r="Z267" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA267" t="n">
@@ -38897,7 +38897,7 @@
       </c>
       <c r="AG267" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH267" t="n">
@@ -39014,7 +39014,7 @@
       </c>
       <c r="Z268" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA268" t="n">
@@ -39041,7 +39041,7 @@
       </c>
       <c r="AG268" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH268" t="n">
@@ -39158,7 +39158,7 @@
       </c>
       <c r="Z269" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA269" t="n">
@@ -39185,7 +39185,7 @@
       </c>
       <c r="AG269" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH269" t="inlineStr">
@@ -39304,7 +39304,7 @@
       </c>
       <c r="Z270" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA270" t="n">
@@ -39331,7 +39331,7 @@
       </c>
       <c r="AG270" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH270" t="n">
@@ -39448,7 +39448,7 @@
       </c>
       <c r="Z271" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA271" t="n">
@@ -39475,7 +39475,7 @@
       </c>
       <c r="AG271" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH271" t="n">
@@ -39508,7 +39508,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Yang Yuhuan (楊玉環ヤン・ユーファン?), Cthugha, Youkihi</t>
+          <t>Yang Yuhuan (楊玉環ヤン・ユーファン?), Cthugha, Youkihi, Yuyu</t>
         </is>
       </c>
       <c r="G272" t="n">
@@ -39587,12 +39587,12 @@
       </c>
       <c r="Y272" t="inlineStr">
         <is>
-          <t>Divine, Female, Humanoid, Servant, Threat to Humanity, Weak to Enuma Elish</t>
+          <t>Divine, Existence Outside the Domain, Female, Humanoid, Servant, Threat to Humanity, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z272" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA272" t="n">
@@ -39619,7 +39619,7 @@
       </c>
       <c r="AG272" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH272" t="n">
@@ -39736,7 +39736,7 @@
       </c>
       <c r="Z273" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA273" t="n">
@@ -39763,7 +39763,7 @@
       </c>
       <c r="AG273" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH273" t="n">
@@ -39880,7 +39880,7 @@
       </c>
       <c r="Z274" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA274" t="n">
@@ -39907,7 +39907,7 @@
       </c>
       <c r="AG274" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH274" t="n">
@@ -40024,7 +40024,7 @@
       </c>
       <c r="Z275" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA275" t="n">
@@ -40051,7 +40051,7 @@
       </c>
       <c r="AG275" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH275" t="n">
@@ -40168,7 +40168,7 @@
       </c>
       <c r="Z276" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA276" t="n">
@@ -40195,7 +40195,7 @@
       </c>
       <c r="AG276" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH276" t="n">
@@ -40312,7 +40312,7 @@
       </c>
       <c r="Z277" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA277" t="n">
@@ -40339,7 +40339,7 @@
       </c>
       <c r="AG277" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH277" t="n">
@@ -40451,12 +40451,12 @@
       </c>
       <c r="Y278" t="inlineStr">
         <is>
-          <t>Children Servants, Humanoid, Male, Servant</t>
+          <t>Children Servants, Existence Outside the Domain, Humanoid, Male, Servant</t>
         </is>
       </c>
       <c r="Z278" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA278" t="n">
@@ -40483,7 +40483,7 @@
       </c>
       <c r="AG278" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH278" t="n">
@@ -40600,7 +40600,7 @@
       </c>
       <c r="Z279" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA279" t="n">
@@ -40627,7 +40627,7 @@
       </c>
       <c r="AG279" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH279" t="n">
@@ -40744,7 +40744,7 @@
       </c>
       <c r="Z280" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA280" t="n">
@@ -40771,7 +40771,7 @@
       </c>
       <c r="AG280" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH280" t="n">
@@ -40888,7 +40888,7 @@
       </c>
       <c r="Z281" t="inlineStr">
         <is>
-          <t>QAAAB</t>
+          <t>QAAAB.png</t>
         </is>
       </c>
       <c r="AA281" t="n">
@@ -40915,7 +40915,7 @@
       </c>
       <c r="AG281" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH281" t="inlineStr">
@@ -41034,7 +41034,7 @@
       </c>
       <c r="Z282" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA282" t="n">
@@ -41061,7 +41061,7 @@
       </c>
       <c r="AG282" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH282" t="n">
@@ -41178,7 +41178,7 @@
       </c>
       <c r="Z283" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA283" t="n">
@@ -41205,7 +41205,7 @@
       </c>
       <c r="AG283" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH283" t="n">
@@ -41322,7 +41322,7 @@
       </c>
       <c r="Z284" t="inlineStr">
         <is>
-          <t>QABBB</t>
+          <t>QABBB.png</t>
         </is>
       </c>
       <c r="AA284" t="n">
@@ -41349,7 +41349,7 @@
       </c>
       <c r="AG284" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH284" t="n">
@@ -41466,7 +41466,7 @@
       </c>
       <c r="Z285" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA285" t="n">
@@ -41493,7 +41493,7 @@
       </c>
       <c r="AG285" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Quick.png</t>
         </is>
       </c>
       <c r="AH285" t="n">
@@ -41567,7 +41567,7 @@
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>Semi S</t>
+          <t>S</t>
         </is>
       </c>
       <c r="R286" t="n">
@@ -41605,12 +41605,12 @@
       </c>
       <c r="Y286" t="inlineStr">
         <is>
-          <t>Children Servants, Divine, Female, Humanoid, Servant, Threat to Humanity</t>
+          <t>Children Servants, Divine, Existence Outside the Domain, Female, Humanoid, Servant, Threat to Humanity</t>
         </is>
       </c>
       <c r="Z286" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA286" t="n">
@@ -41637,7 +41637,7 @@
       </c>
       <c r="AG286" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH286" t="n">
@@ -41754,7 +41754,7 @@
       </c>
       <c r="Z287" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA287" t="n">
@@ -41781,7 +41781,7 @@
       </c>
       <c r="AG287" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH287" t="n">
@@ -41898,7 +41898,7 @@
       </c>
       <c r="Z288" t="inlineStr">
         <is>
-          <t>QQAAB</t>
+          <t>QQAAB.png</t>
         </is>
       </c>
       <c r="AA288" t="n">
@@ -41925,7 +41925,7 @@
       </c>
       <c r="AG288" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH288" t="n">
@@ -41958,7 +41958,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>親魏倭王</t>
+          <t>Shingi Waō (親魏倭王?)</t>
         </is>
       </c>
       <c r="G289" t="n">
@@ -41999,7 +41999,7 @@
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>Semi Reverse S</t>
+          <t>Reverse S</t>
         </is>
       </c>
       <c r="R289" t="n">
@@ -42042,7 +42042,7 @@
       </c>
       <c r="Z289" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA289" t="n">
@@ -42069,7 +42069,7 @@
       </c>
       <c r="AG289" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH289" t="inlineStr">
@@ -42081,7 +42081,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Saitō_Hajime</t>
+          <t>Saitō Hajime</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -42104,7 +42104,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hajime-chan</t>
         </is>
       </c>
       <c r="G290" t="n">
@@ -42188,7 +42188,7 @@
       </c>
       <c r="Z290" t="inlineStr">
         <is>
-          <t>QAABB</t>
+          <t>QAABB.png</t>
         </is>
       </c>
       <c r="AA290" t="n">
@@ -42215,7 +42215,7 @@
       </c>
       <c r="AG290" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Arts.png</t>
         </is>
       </c>
       <c r="AH290" t="n">
@@ -42255,7 +42255,7 @@
         <v>3</v>
       </c>
       <c r="H291" t="n">
-        <v>1930</v>
+        <v>930</v>
       </c>
       <c r="I291" t="n">
         <v>5116</v>
@@ -42274,7 +42274,7 @@
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>Yamashita Daiki</t>
+          <t>Yamashita Daiki, Kugimiya Rie</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -42289,7 +42289,7 @@
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>Semi Reverse S</t>
+          <t>Reverse S</t>
         </is>
       </c>
       <c r="R291" t="n">
@@ -42332,7 +42332,7 @@
       </c>
       <c r="Z291" t="inlineStr">
         <is>
-          <t>QQABB</t>
+          <t>QQABB.png</t>
         </is>
       </c>
       <c r="AA291" t="n">
@@ -42359,13 +42359,303 @@
       </c>
       <c r="AG291" t="inlineStr">
         <is>
-          <t>Buster</t>
+          <t>Buster.png</t>
         </is>
       </c>
       <c r="AH291" t="inlineStr">
         <is>
           <t>－</t>
         </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Van Gogh</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>295</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>5-Star</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Foreigner</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>ヴァン・ゴッホ</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Vincent Van Gogh (ヴィンセント・ヴァン・ゴッホ?), Clytie (クリュティエ?), Clytie Van Gogh (クリュティエ＝ヴァン・ゴッホ?)</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>16</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1734</v>
+      </c>
+      <c r="I292" t="n">
+        <v>11220</v>
+      </c>
+      <c r="J292" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K292" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L292" t="n">
+        <v>12282</v>
+      </c>
+      <c r="M292" t="n">
+        <v>16433</v>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>Takahashi Karin</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>Kibadori Rue</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>Semi Reverse S</t>
+        </is>
+      </c>
+      <c r="R292" t="n">
+        <v>147</v>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>14.9%</t>
+        </is>
+      </c>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>0.76%</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="V292" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="W292" t="inlineStr">
+        <is>
+          <t>Chaotic Evil</t>
+        </is>
+      </c>
+      <c r="X292" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="Y292" t="inlineStr">
+        <is>
+          <t>Children Servants, Divine, Existence Outside the Domain, Female, Humanoid, Servant, Threat to Humanity, Weak To Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z292" t="inlineStr">
+        <is>
+          <t>QQQAB.png</t>
+        </is>
+      </c>
+      <c r="AA292" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE292" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="AF292" t="inlineStr">
+        <is>
+          <t>Anti-Unit</t>
+        </is>
+      </c>
+      <c r="AG292" t="inlineStr">
+        <is>
+          <t>Arts.png</t>
+        </is>
+      </c>
+      <c r="AH292" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Nemo</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>296</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>5-Star</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>ネモ</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Captain Nemo, Captain, Prince, Nameless, Prince Dakkar, Triton</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>16</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1766</v>
+      </c>
+      <c r="I293" t="n">
+        <v>11427</v>
+      </c>
+      <c r="J293" t="n">
+        <v>2006</v>
+      </c>
+      <c r="K293" t="n">
+        <v>13680</v>
+      </c>
+      <c r="L293" t="n">
+        <v>12427</v>
+      </c>
+      <c r="M293" t="n">
+        <v>14680</v>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>Hanamori Yumiri</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>DANGERDROP</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>Semi S</t>
+        </is>
+      </c>
+      <c r="R293" t="n">
+        <v>204</v>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>8.9%</t>
+        </is>
+      </c>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="W293" t="inlineStr">
+        <is>
+          <t>Chaotic Neutral</t>
+        </is>
+      </c>
+      <c r="X293" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="Y293" t="inlineStr">
+        <is>
+          <t>Argo-Related, Brynhildr's Beloved, Divine, Greek Mythology Males, Male, Riding, Humanoid, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z293" t="inlineStr">
+        <is>
+          <t>QAABB.png</t>
+        </is>
+      </c>
+      <c r="AA293" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE293" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AF293" t="inlineStr">
+        <is>
+          <t>Anti-Unit</t>
+        </is>
+      </c>
+      <c r="AG293" t="inlineStr">
+        <is>
+          <t>Arts.png</t>
+        </is>
+      </c>
+      <c r="AH293" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Total Servant Database.xlsx
+++ b/Total Servant Database.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH293"/>
+  <dimension ref="A1:AH298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Brynhildr's Beloved, Humanoid, Male, Servant, Weak to Enuma Elish</t>
+          <t>Brynhildr's Beloved, Genji, Humanoid, Male, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Brynhildr's Beloved, Female, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Brynhildr's Beloved, Female, Genji, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>General of Repetition, Lü Bu Fengxian</t>
+          <t>General of Repetition, Lü Bu Fengxian, Ryo Fu</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>Brynhildr's Beloved, Divine, Humanoid, Male, Servant, Weak to Enuma Elish</t>
+          <t>Brynhildr's Beloved, Divine, Genji, Humanoid, Male, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>Children Servants, Giant, Greek Mythology Males, Humanoid, Male, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Demonic Beast Servants, Giant, Greek Mythology Males, Humanoid, Male, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -8880,7 +8880,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Beast, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Beast, Demonic Beast Servants, Female, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -9458,7 +9458,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>Divine, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Demonic Beast Servants, Divine, Female, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -11190,7 +11190,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Children Servants (Stage2-3), Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants(Stage 2-3), Female, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -16738,7 +16738,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Shuten-Douji, Ibuki-Dōji?, Saṃghāta Hell Berserker (バーサーカー・衆合地獄?)</t>
+          <t>Shuten-Douji, Ibuki Dōji, Saṃghāta Hell Berserker (バーサーカー・衆合地獄?)</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -16817,7 +16817,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>Demonic, Divine, Dragon, Female, Humanoid, Servant, Shuten Dōji, Weak to Enuma Elish</t>
+          <t>Demonic, Divine, Dragon, Female, Humanoid, Oni, Servant, Shuten Dōji, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z114" t="inlineStr">
@@ -17105,7 +17105,7 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>Divine, Female, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Divine, Female, Genji, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z116" t="inlineStr">
@@ -17249,7 +17249,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>Brynhildr's Beloved, Divine, Humanoid, Male, Servant, Weak to Enuma Elish</t>
+          <t>Brynhildr's Beloved, Divine, Genji, Humanoid, Male, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr">
@@ -17393,7 +17393,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>Children Servants, Demonic, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Demonic, Female, Humanoid, Oni, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
@@ -18754,7 +18754,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>The Silver Arm (銀色の腕, Gin'iro no Ude?)Lucius, The Shining Airgetlám</t>
+          <t>The Silver Arm (銀色の腕, Gin'iro no Ude?)Lucius, The Shining Airgetlám, Wandering Knight (放浪の騎士, Hōrō no kishi)</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -19121,7 +19121,7 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>Divine, Female, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Demonic Beast Servants, Divine, Female, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr">
@@ -21857,7 +21857,7 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Demonic Beast Servants, Female, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z149" t="inlineStr">
@@ -23011,7 +23011,7 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>Beast, Humanoid, Male, Servant, Weak To Enuma Elish</t>
+          <t>Beast, Demonic Beast Servants, Humanoid, Male, Servant, Weak To Enuma Elish</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
@@ -24019,7 +24019,7 @@
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>Divine, Female, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Divine, Female, Humanoid, Oni, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
@@ -26181,7 +26181,7 @@
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>Divine, Female, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Divine, Female, Genji, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z179" t="inlineStr">
@@ -26613,7 +26613,7 @@
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>Demonic, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Demonic, Female, Genji, Humanoid, Oni, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z182" t="inlineStr">
@@ -26999,7 +26999,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Furumi Shouichi</t>
+          <t>Furumi Showichi</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -27047,7 +27047,7 @@
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>Brynhildr's Beloved, Humanoid, Male, Riding, Servant, Weak to Enuma ElishEnemy Ver. Traits: Human</t>
+          <t>Brynhildr's Beloved, Genji, Humanoid, Male, Riding, Servant, Weak to Enuma ElishEnemy Ver. Traits: Human</t>
         </is>
       </c>
       <c r="Z185" t="inlineStr">
@@ -27112,7 +27112,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Katou Danzou, Katou "Black Kite" Danzo, Flying Katou, Kite Katou</t>
+          <t>Katou Danzou, Katou "Black Kite" Danzo, Flying Katou (飛び加藤, 𝘛𝘰𝘣𝘪 𝘒𝘢𝘵ō), Kite Katou</t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -31369,7 +31369,7 @@
       </c>
       <c r="Y215" t="inlineStr">
         <is>
-          <t>Children Servants, Demonic, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Demonic, Female, Humanoid, Oni, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z215" t="inlineStr">
@@ -31513,7 +31513,7 @@
       </c>
       <c r="Y216" t="inlineStr">
         <is>
-          <t>Brynhildr's Beloved, Female, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Brynhildr's Beloved, Female, Genji, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z216" t="inlineStr">
@@ -32517,7 +32517,7 @@
       </c>
       <c r="Y223" t="inlineStr">
         <is>
-          <t>Demonic, Divine, Dragon, Female, Humanoid, Servant, Shuten Dōji, Weak to Enuma Elish</t>
+          <t>Demonic, Divine, Dragon, Female, Humanoid, Oni, Servant, Shuten Dōji, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z223" t="inlineStr">
@@ -33018,7 +33018,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>First Emperor, Qin Shi Huang (秦始皇?), Ying Zheng (嬴政?), Zheng, the King of Qin  (秦王政?), the Son of Heaven</t>
+          <t>First Emperor, Qin Shi Huang (秦始皇?), Ying Zheng (嬴政?), Zheng, the King of Qin  (秦王政?), the Son of Heaven, Shikoutei</t>
         </is>
       </c>
       <c r="G227" t="n">
@@ -33164,7 +33164,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Yu Miaoyi, Yu the Beauty, Yu Meiren, Akuta Hinako (芥ヒナコ?)Crimson Beauty Under the Moon (紅の月下美人?), Gubijin, Gucchan, 虞妙弋</t>
+          <t>Yu Mei-ren, Yu the Beauty, Akuta Hinako (芥ヒナコ?)Crimson Beauty Under the Moon (紅の月下美人?), Gubijin, Gucchan</t>
         </is>
       </c>
       <c r="G228" t="n">
@@ -33387,7 +33387,7 @@
       </c>
       <c r="Y229" t="inlineStr">
         <is>
-          <t>Beast, Brynhildr's Beloved, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Beast, Brynhildr's Beloved, Demonic Beast Servants, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z229" t="inlineStr">
@@ -33819,7 +33819,7 @@
       </c>
       <c r="Y232" t="inlineStr">
         <is>
-          <t>Children Servants, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants, Female, Humanoid, Oni, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z232" t="inlineStr">
@@ -34541,7 +34541,7 @@
       </c>
       <c r="Y237" t="inlineStr">
         <is>
-          <t>Children Servants (Stage 1), Divine, Female, Humanoid, Pseudo-Servant, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Children Servants(Stage 1), Divine, Female, Humanoid, Pseudo-Servant, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z237" t="inlineStr">
@@ -37922,7 +37922,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Katsushika Oui (葛飾 応為, Katsushika Ōi?, Daughter); Tokitarō, Dragon-Crested Octopus, Darusen, The Old Man Mad About Art Swastika (画狂老人卍, Gakyō Rōjin Manji?, Last renamed name)</t>
+          <t>Katsushika Oui (葛飾 応為, Katsushika Ōi?, Daughter); Tokitarō, Dragon-Crested Octopus, Darusen, The Old Man Mad About Art Manji (画狂老人卍, Gakyō Rōjin Manji?, Last renamed name)</t>
         </is>
       </c>
       <c r="G261" t="n">
@@ -39220,7 +39220,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Rodomonte</t>
         </is>
       </c>
       <c r="G270" t="n">
@@ -39940,7 +39940,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Dioskouroi, the Gemini Twins, Castor &amp; Pollux</t>
+          <t>Dioskouroi, the Gemini Twins, Castor &amp; Pollux(カストロ &amp; ポルクス)</t>
         </is>
       </c>
       <c r="G275" t="n">
@@ -40084,7 +40084,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Caeneus, Poseidon's Proxy, Golden Caenis</t>
+          <t>Caeneus, Poseidon's Proxy, Golden Caenis(黄金のカイニス)</t>
         </is>
       </c>
       <c r="G276" t="n">
@@ -40595,7 +40595,7 @@
       </c>
       <c r="Y279" t="inlineStr">
         <is>
-          <t>Demonic, Dragon, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Demonic, Demonic Beast Servants(Stage 1), Dragon, Female, Humanoid, Oni, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z279" t="inlineStr">
@@ -41029,7 +41029,7 @@
       </c>
       <c r="Y282" t="inlineStr">
         <is>
-          <t>Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Demonic Beast Servants(Stage 3), Female, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z282" t="inlineStr">
@@ -41382,7 +41382,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Yu Miaoyi, Yu the Beauty, Yu Meiren, Akuta Hinako (芥ヒナコ?)Crimson Beauty Under the Moon (紅の月下美人?), Gubijin, Gucchan, 虞妙弋</t>
+          <t>Yu Mei-ren, Yu the Beauty, Akuta Hinako (芥ヒナコ?)Crimson Beauty Under the Moon (紅の月下美人?), Gubijin, Gucchan</t>
         </is>
       </c>
       <c r="G285" t="n">
@@ -41749,7 +41749,7 @@
       </c>
       <c r="Y287" t="inlineStr">
         <is>
-          <t>Demonic, Female, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Demonic, Female, Genji, Humanoid, Oni, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z287" t="inlineStr">
@@ -42656,6 +42656,718 @@
       </c>
       <c r="AH293" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Ashiya Dōman</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>297</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>5-Star</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Alter Ego</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>蘆屋道満</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Dōma Hōshi (道摩法師?), Caster Limbo (キャスター・リンボ?)</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>16</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1893</v>
+      </c>
+      <c r="I294" t="n">
+        <v>12252</v>
+      </c>
+      <c r="J294" t="n">
+        <v>1945</v>
+      </c>
+      <c r="K294" t="n">
+        <v>13266</v>
+      </c>
+      <c r="L294" t="n">
+        <v>13412</v>
+      </c>
+      <c r="M294" t="n">
+        <v>14533</v>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>Morikawa Toshiyuki</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>Furumi Showichi</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>Sem Reverse S</t>
+        </is>
+      </c>
+      <c r="R294" t="n">
+        <v>100</v>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>9.7%</t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="V294" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="W294" t="inlineStr">
+        <is>
+          <t>Chaotic Evil</t>
+        </is>
+      </c>
+      <c r="X294" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y294" t="inlineStr">
+        <is>
+          <t>Demonic, Divine, Humanoid, Servant, Weak to Enuma ElishEnemy Ver. Traits: Threat to Humanity</t>
+        </is>
+      </c>
+      <c r="Z294" t="inlineStr">
+        <is>
+          <t>QQAAB.png</t>
+        </is>
+      </c>
+      <c r="AA294" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE294" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AF294" t="inlineStr">
+        <is>
+          <t>Anti-City</t>
+        </is>
+      </c>
+      <c r="AG294" t="inlineStr">
+        <is>
+          <t>Quick.png</t>
+        </is>
+      </c>
+      <c r="AH294" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Watanabe no Tsuna</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>298</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>4-Star</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>渡辺綱</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>12</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1687</v>
+      </c>
+      <c r="I295" t="n">
+        <v>10123</v>
+      </c>
+      <c r="J295" t="n">
+        <v>1799</v>
+      </c>
+      <c r="K295" t="n">
+        <v>11248</v>
+      </c>
+      <c r="L295" t="n">
+        <v>12257</v>
+      </c>
+      <c r="M295" t="n">
+        <v>13638</v>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>Akabane Kenji</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>Hidari</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Semi Reverse S</t>
+        </is>
+      </c>
+      <c r="R295" t="n">
+        <v>100</v>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="V295" t="inlineStr">
+        <is>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="W295" t="inlineStr">
+        <is>
+          <t>Neutral Good</t>
+        </is>
+      </c>
+      <c r="X295" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="Y295" t="inlineStr">
+        <is>
+          <t>Brynhildr's Beloved, Genji, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z295" t="inlineStr">
+        <is>
+          <t>QAABB.png</t>
+        </is>
+      </c>
+      <c r="AA295" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE295" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AF295" t="inlineStr">
+        <is>
+          <t>Anti-Demon</t>
+        </is>
+      </c>
+      <c r="AG295" t="inlineStr">
+        <is>
+          <t>Buster.png</t>
+        </is>
+      </c>
+      <c r="AH295" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Ibuki Dōji</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>299</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5-Star</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>伊吹童子</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Shuten Dōji</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>16</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1964</v>
+      </c>
+      <c r="I296" t="n">
+        <v>12709</v>
+      </c>
+      <c r="J296" t="n">
+        <v>1979</v>
+      </c>
+      <c r="K296" t="n">
+        <v>13498</v>
+      </c>
+      <c r="L296" t="n">
+        <v>13912</v>
+      </c>
+      <c r="M296" t="n">
+        <v>14788</v>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>Yūki Aoi</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>Honjou Raita</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>Linear</t>
+        </is>
+      </c>
+      <c r="R296" t="n">
+        <v>98</v>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>9.9%</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>0.78%</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="V296" t="inlineStr">
+        <is>
+          <t>17.5%</t>
+        </is>
+      </c>
+      <c r="W296" t="inlineStr">
+        <is>
+          <t>Chaotic Good</t>
+        </is>
+      </c>
+      <c r="X296" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="Y296" t="inlineStr">
+        <is>
+          <t>Demonic, Demonic Beast Servants, Divine, Dragon, Female, Giant, Oni, Riding, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z296" t="inlineStr">
+        <is>
+          <t>QABBB.png</t>
+        </is>
+      </c>
+      <c r="AA296" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE296" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="AF296" t="inlineStr">
+        <is>
+          <t>Anti-Army / Anti-Fortress</t>
+        </is>
+      </c>
+      <c r="AG296" t="inlineStr">
+        <is>
+          <t>Buster.png</t>
+        </is>
+      </c>
+      <c r="AH296" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Vritra</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>300</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>5-Star</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>ヴリトラ</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>16</v>
+      </c>
+      <c r="H297" t="n">
+        <v>1905</v>
+      </c>
+      <c r="I297" t="n">
+        <v>12332</v>
+      </c>
+      <c r="J297" t="n">
+        <v>1999</v>
+      </c>
+      <c r="K297" t="n">
+        <v>13632</v>
+      </c>
+      <c r="L297" t="n">
+        <v>13499</v>
+      </c>
+      <c r="M297" t="n">
+        <v>14934</v>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>Asahina Madoka</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>La-na</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="Q297" t="inlineStr"/>
+      <c r="R297" t="n">
+        <v>88</v>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>12.2%</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="W297" t="inlineStr">
+        <is>
+          <t>Neutral Evil</t>
+        </is>
+      </c>
+      <c r="X297" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="Y297" t="inlineStr">
+        <is>
+          <t>Demonic, Demonic Beast Servants, Dragon, Humanoid, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z297" t="inlineStr">
+        <is>
+          <t>QQAAB.png</t>
+        </is>
+      </c>
+      <c r="AA297" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE297" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="AF297" t="inlineStr">
+        <is>
+          <t>Anti-World</t>
+        </is>
+      </c>
+      <c r="AG297" t="inlineStr">
+        <is>
+          <t>Arts.png</t>
+        </is>
+      </c>
+      <c r="AH297" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Karna (Santa)</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>301</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>4-Star</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>カルナ〔サンタ〕</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G298" t="n">
+        <v>12</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1530</v>
+      </c>
+      <c r="I298" t="n">
+        <v>9180</v>
+      </c>
+      <c r="J298" t="n">
+        <v>2060</v>
+      </c>
+      <c r="K298" t="n">
+        <v>12877</v>
+      </c>
+      <c r="L298" t="n">
+        <v>11115</v>
+      </c>
+      <c r="M298" t="n">
+        <v>15613</v>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>Yusa Kouji</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>pako</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="Q298" t="inlineStr"/>
+      <c r="R298" t="n">
+        <v>99</v>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>0.78%</t>
+        </is>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="V298" t="inlineStr">
+        <is>
+          <t>31.5%</t>
+        </is>
+      </c>
+      <c r="W298" t="inlineStr">
+        <is>
+          <t>Lawful Good</t>
+        </is>
+      </c>
+      <c r="X298" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="Y298" t="inlineStr">
+        <is>
+          <t>Divine, Humanoid, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z298" t="inlineStr">
+        <is>
+          <t>QQABB.png</t>
+        </is>
+      </c>
+      <c r="AA298" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE298" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AF298" t="inlineStr">
+        <is>
+          <t>Anti-Unit</t>
+        </is>
+      </c>
+      <c r="AG298" t="inlineStr">
+        <is>
+          <t>Quick.png</t>
+        </is>
+      </c>
+      <c r="AH298" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Total Servant Database.xlsx
+++ b/Total Servant Database.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH298"/>
+  <dimension ref="A1:AH302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Shinjirō‏‎</t>
+          <t>Shinjirō</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Feminine Looking Servant, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Shinjirō‏‎</t>
+          <t>Shinjirō</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Fox Priestess of Peerless Beauty (絶世の美女巫女狐, Zessei no Bijo Miko-Gitsune?)Cas-ko (キャス狐こ?), Mizukume, Otama</t>
+          <t>Fox Priestess of Peerless Beauty (絶世の美女巫女狐, Zessei no Bijo Miko-Gitsune?), Cas-ko (キャス狐こ?), Mizukume</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -9458,7 +9458,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>Demonic Beast Servants, Divine, Female, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Demonic Beast Servant, Divine, Female, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -14075,7 +14075,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Feminine Looking Servant, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
@@ -14343,7 +14343,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -16335,7 +16335,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>???</t>
+          <t>AKIRA</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -19121,7 +19121,7 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>Demonic Beast Servants, Divine, Female, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Demonic Beast Servant, Divine, Female, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr">
@@ -21281,7 +21281,7 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Feminine Looking Servant, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
@@ -21948,7 +21948,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>Itō‏‎ Miki</t>
+          <t>Itō Miki</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -23395,7 +23395,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Yogo Yū‏‎ki</t>
+          <t>Yogo Yūki</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -33387,7 +33387,7 @@
       </c>
       <c r="Y229" t="inlineStr">
         <is>
-          <t>Beast, Brynhildr's Beloved, Demonic Beast Servants, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Beast, Brynhildr's Beloved, Demonic Beast Servant, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z229" t="inlineStr">
@@ -35985,7 +35985,7 @@
       </c>
       <c r="Y247" t="inlineStr">
         <is>
-          <t>Humanoid, King, Nobunaga, Servant, Weak to Enuma Elish</t>
+          <t>Feminine Looking Servant, Humanoid, King, Nobunaga, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z247" t="inlineStr">
@@ -38498,7 +38498,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Ishtar, Astarte, Astaroth</t>
+          <t>Ishtar, Astarte, Ishtar-Astarte, Astoreth</t>
         </is>
       </c>
       <c r="G265" t="n">
@@ -38865,7 +38865,7 @@
       </c>
       <c r="Y267" t="inlineStr">
         <is>
-          <t>Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Feminine Looking Servant, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z267" t="inlineStr">
@@ -40019,7 +40019,7 @@
       </c>
       <c r="Y275" t="inlineStr">
         <is>
-          <t>Argo-Related, Brynhildr's Beloved, Divine, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Argo-Related, Brynhildr's Beloved, Divine, Feminine Looking Servant, Humanoid, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z275" t="inlineStr">
@@ -40163,7 +40163,7 @@
       </c>
       <c r="Y276" t="inlineStr">
         <is>
-          <t>Argo-Related, Brynhildr's Beloved, Divine, Humanoid, King, Servant, Weak to Enuma Elish</t>
+          <t>Argo-Related, Brynhildr's Beloved, Divine, Feminine Looking Servant, Humanoid, King, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z276" t="inlineStr">
@@ -42684,7 +42684,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Dōma Hōshi (道摩法師?), Caster Limbo (キャスター・リンボ?)</t>
+          <t>Dōma Hōshi (道摩法師?), Caster Limbo (キャスター・リンボ?), Rasetsu-Ō・Cranial Eboshi Ashiya Dōman (羅刹王・髑髏烏帽子蘆屋道満?)</t>
         </is>
       </c>
       <c r="G294" t="n">
@@ -43051,7 +43051,7 @@
       </c>
       <c r="Y296" t="inlineStr">
         <is>
-          <t>Demonic, Demonic Beast Servants, Divine, Dragon, Female, Giant, Oni, Riding, Servant, Weak to Enuma Elish</t>
+          <t>Demonic, Demonic Beast Servant, Divine, Dragon, Female, Giant, Oni, Riding, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z296" t="inlineStr">
@@ -43155,7 +43155,11 @@
           <t>Sky</t>
         </is>
       </c>
-      <c r="Q297" t="inlineStr"/>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>Semi Reverse S</t>
+        </is>
+      </c>
       <c r="R297" t="n">
         <v>88</v>
       </c>
@@ -43191,7 +43195,7 @@
       </c>
       <c r="Y297" t="inlineStr">
         <is>
-          <t>Demonic, Demonic Beast Servants, Dragon, Humanoid, Servant, Weak to Enuma Elish</t>
+          <t>Demonic, Demonic Beast Servant, Dragon, Humanoid, Servant, Weak to Enuma Elish</t>
         </is>
       </c>
       <c r="Z297" t="inlineStr">
@@ -43368,6 +43372,582 @@
       </c>
       <c r="AH298" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Senji Muramasa</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>302</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>5-Star</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>千子村正</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Sengo Muramasa, Emiya Shirou (衛宮士郎, Emiya Shirō?)</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>16</v>
+      </c>
+      <c r="H299" t="n">
+        <v>1757</v>
+      </c>
+      <c r="I299" t="n">
+        <v>11373</v>
+      </c>
+      <c r="J299" t="n">
+        <v>2153</v>
+      </c>
+      <c r="K299" t="n">
+        <v>14680</v>
+      </c>
+      <c r="L299" t="n">
+        <v>12449</v>
+      </c>
+      <c r="M299" t="n">
+        <v>16083</v>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>Sugiyama Noriaki</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>Takeuchi Takashi</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>Semi S</t>
+        </is>
+      </c>
+      <c r="R299" t="n">
+        <v>100</v>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
+      </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="V299" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="W299" t="inlineStr">
+        <is>
+          <t>Chaotic Neutral</t>
+        </is>
+      </c>
+      <c r="X299" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="Y299" t="inlineStr">
+        <is>
+          <t>Living Human, Humanoid, Male, Pseudo-Servant, Servants, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z299" t="inlineStr">
+        <is>
+          <t>QAABB.png</t>
+        </is>
+      </c>
+      <c r="AA299" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE299" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="AF299" t="inlineStr">
+        <is>
+          <t>Anti-Unit</t>
+        </is>
+      </c>
+      <c r="AG299" t="inlineStr">
+        <is>
+          <t>Arts.png</t>
+        </is>
+      </c>
+      <c r="AH299" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Taira no Kagekiyo</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>303</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>5-Star</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Avenger</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>平景清</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Kurō Hōgan Yoshitsune (九郎判官義経?), Minamoto no Yoshitsune (源義経?)</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>16</v>
+      </c>
+      <c r="H300" t="n">
+        <v>1963</v>
+      </c>
+      <c r="I300" t="n">
+        <v>12705</v>
+      </c>
+      <c r="J300" t="n">
+        <v>1777</v>
+      </c>
+      <c r="K300" t="n">
+        <v>12117</v>
+      </c>
+      <c r="L300" t="n">
+        <v>13908</v>
+      </c>
+      <c r="M300" t="n">
+        <v>13275</v>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>Hayami Saori</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>Sakamoto Mineji</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>Linear</t>
+        </is>
+      </c>
+      <c r="R300" t="n">
+        <v>30</v>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="V300" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="W300" t="inlineStr">
+        <is>
+          <t>Chaotic Evil</t>
+        </is>
+      </c>
+      <c r="X300" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y300" t="inlineStr">
+        <is>
+          <t>Brynhildr's Beloved, Feminine Looking Servant, Genji, Humanoid, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z300" t="inlineStr">
+        <is>
+          <t>QQAAB.png</t>
+        </is>
+      </c>
+      <c r="AA300" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE300" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AF300" t="inlineStr">
+        <is>
+          <t>Anti-Unit Secret Technique</t>
+        </is>
+      </c>
+      <c r="AG300" t="inlineStr">
+        <is>
+          <t>Quick.png</t>
+        </is>
+      </c>
+      <c r="AH300" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Kiichi Hōgen</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>304</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>4-Star</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Assassin</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>鬼一法眼</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Kiichi Hougen, Oniichi Hōgen, Sōjōbō, Soujoubou</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>12</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1572</v>
+      </c>
+      <c r="I301" t="n">
+        <v>9434</v>
+      </c>
+      <c r="J301" t="n">
+        <v>1786</v>
+      </c>
+      <c r="K301" t="n">
+        <v>11168</v>
+      </c>
+      <c r="L301" t="n">
+        <v>11423</v>
+      </c>
+      <c r="M301" t="n">
+        <v>13541</v>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>Kakuma Ai</t>
+        </is>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>Ohmori Aoi</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>Semi Reverse S</t>
+        </is>
+      </c>
+      <c r="R301" t="n">
+        <v>100</v>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>25.6%</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="V301" t="inlineStr">
+        <is>
+          <t>27.5%</t>
+        </is>
+      </c>
+      <c r="W301" t="inlineStr">
+        <is>
+          <t>Chaotic Neutral</t>
+        </is>
+      </c>
+      <c r="X301" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y301" t="inlineStr">
+        <is>
+          <t>Demonic, Feminine Looking Servant, Humanoid, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z301" t="inlineStr">
+        <is>
+          <t>QQABB.png</t>
+        </is>
+      </c>
+      <c r="AA301" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE301" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AF301" t="inlineStr">
+        <is>
+          <t>Anti-Fortress</t>
+        </is>
+      </c>
+      <c r="AG301" t="inlineStr">
+        <is>
+          <t>Quick.png</t>
+        </is>
+      </c>
+      <c r="AH301" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Caren C Hortensia (Amor Caren)</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>305</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>5-Star</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Ruler</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>カレン・C・オルテンシア（アムール〔カレン〕）; アムール; カレン・C・オルテンシア; ゴッドカレン;</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Caren Hortensia, Amor, God Caren</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>16</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1754</v>
+      </c>
+      <c r="I302" t="n">
+        <v>11351</v>
+      </c>
+      <c r="J302" t="n">
+        <v>2029</v>
+      </c>
+      <c r="K302" t="n">
+        <v>13837</v>
+      </c>
+      <c r="L302" t="n">
+        <v>12425</v>
+      </c>
+      <c r="M302" t="n">
+        <v>15159</v>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>Koshimizu Ami</t>
+        </is>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>Morii Shizuki</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>Semi Reverse S</t>
+        </is>
+      </c>
+      <c r="R302" t="n">
+        <v>101</v>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>9.9%</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="V302" t="inlineStr">
+        <is>
+          <t>28.8%</t>
+        </is>
+      </c>
+      <c r="W302" t="inlineStr">
+        <is>
+          <t>Lawful Good</t>
+        </is>
+      </c>
+      <c r="X302" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="Y302" t="inlineStr">
+        <is>
+          <t>Divine, Female, Humanoid, Living Human, Pseudo-Servants, Roman, Servant, Weak to Enuma Elish</t>
+        </is>
+      </c>
+      <c r="Z302" t="inlineStr">
+        <is>
+          <t>QQAAB.png</t>
+        </is>
+      </c>
+      <c r="AA302" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE302" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="AF302" t="inlineStr">
+        <is>
+          <t>Anti-Unit</t>
+        </is>
+      </c>
+      <c r="AG302" t="inlineStr">
+        <is>
+          <t>Quick.png</t>
+        </is>
+      </c>
+      <c r="AH302" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
